--- a/FFT.xlsx
+++ b/FFT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiKe\Desktop\AudioSpectrumAnalyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816E0E4-EBC8-4F09-ADAC-515C27EF061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -304,8 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -641,39 +644,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -687,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -701,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -715,7 +718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -726,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -737,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -749,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -764,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -779,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -791,12 +794,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="18" t="s">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -812,48 +815,48 @@
       <c r="F17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="19" t="str">
+      <c r="H17" s="18" t="str">
         <f>"//"&amp;B9&amp;" bands, "&amp;B7/1000&amp;"kHz top band"</f>
         <v>//16 bands, 12kHz top band</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
         <v>0</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f t="shared" ref="C18:C81" si="0">$B$6*POWER($B$11,B18)</f>
         <v>80</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f t="shared" ref="D18:D81" si="1">C18/$B$13</f>
         <v>2.048</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f>((D19-D18)/2)+D18</f>
         <v>2.454120747555514</v>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="19" t="str">
         <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];"</f>
         <v xml:space="preserve">      if (i&lt;=2 )           bandValues[0]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>111.7281834027745</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <f t="shared" si="1"/>
         <v>2.8602414951110275</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <f>F18</f>
         <v>2.454120747555514</v>
       </c>
@@ -861,24 +864,24 @@
         <f>((D20-D19)/2)+D19</f>
         <v>3.4274306621929562</v>
       </c>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="19" t="str">
         <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];"))</f>
         <v xml:space="preserve">      if (i&gt;2   &amp;&amp; i&lt;=3  ) bandValues[1]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>156.03983708105019</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <f t="shared" si="1"/>
         <v>3.9946198292748849</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f t="shared" ref="E20:E81" si="2">F19</f>
         <v>3.4274306621929562</v>
       </c>
@@ -886,24 +889,24 @@
         <f t="shared" ref="F20:F81" si="3">((D21-D20)/2)+D20</f>
         <v>4.7867575203223431</v>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="19" t="str">
         <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
         <v xml:space="preserve">      if (i&gt;3   &amp;&amp; i&lt;=5  ) bandValues[2]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>3</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>217.92559419413288</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <f t="shared" si="1"/>
         <v>5.5788952113698018</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <f t="shared" si="2"/>
         <v>4.7867575203223431</v>
       </c>
@@ -911,24 +914,24 @@
         <f t="shared" si="3"/>
         <v>6.6851965266898112</v>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;5   &amp;&amp; i&lt;=7  ) bandValues[3]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>4</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>304.35538445350858</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <f t="shared" si="1"/>
         <v>7.7914978420098198</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <f t="shared" si="2"/>
         <v>6.6851965266898112</v>
       </c>
@@ -936,24 +939,24 @@
         <f t="shared" si="3"/>
         <v>9.3365607952198779</v>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;7   &amp;&amp; i&lt;=9  ) bandValues[4]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>5</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>425.06342767304437</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <f t="shared" si="1"/>
         <v>10.881623748429936</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <f t="shared" si="2"/>
         <v>9.3365607952198779</v>
       </c>
@@ -961,24 +964,24 @@
         <f t="shared" si="3"/>
         <v>13.039462210993507</v>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;9   &amp;&amp; i&lt;=13  ) bandValues[5]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>6</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>593.64455756082339</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <f t="shared" si="1"/>
         <v>15.197300673557079</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <f t="shared" si="2"/>
         <v>13.039462210993507</v>
       </c>
@@ -986,24 +989,24 @@
         <f t="shared" si="3"/>
         <v>18.210942817292878</v>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;13   &amp;&amp; i&lt;=18  ) bandValues[6]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>7</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>829.08535004018268</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <f t="shared" si="1"/>
         <v>21.224584961028675</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <f t="shared" si="2"/>
         <v>18.210942817292878</v>
       </c>
@@ -1011,24 +1014,24 @@
         <f t="shared" si="3"/>
         <v>25.433444487849222</v>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=25  ) bandValues[7]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>8</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <f t="shared" si="0"/>
         <v>1157.9025005730377</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <f t="shared" si="1"/>
         <v>29.642304014669765</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <f t="shared" si="2"/>
         <v>25.433444487849222</v>
       </c>
@@ -1036,24 +1039,24 @@
         <f t="shared" si="3"/>
         <v>35.520406878783767</v>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;25   &amp;&amp; i&lt;=36  ) bandValues[8]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>9</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <f t="shared" si="0"/>
         <v>1617.1292868319442</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <f t="shared" si="1"/>
         <v>41.398509742897772</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <f t="shared" si="2"/>
         <v>35.520406878783767</v>
       </c>
@@ -1061,24 +1064,24 @@
         <f t="shared" si="3"/>
         <v>49.607881678674076</v>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;36   &amp;&amp; i&lt;=50  ) bandValues[9]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>10</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>2258.4864693144677</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <f t="shared" si="1"/>
         <v>57.817253614450372</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <f t="shared" si="2"/>
         <v>49.607881678674076</v>
       </c>
@@ -1086,24 +1089,24 @@
         <f t="shared" si="3"/>
         <v>69.282481280225426</v>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;50   &amp;&amp; i&lt;=69  ) bandValues[10]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>11</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>3154.2073807031438</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <f t="shared" si="1"/>
         <v>80.747708946000486</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <f t="shared" si="2"/>
         <v>69.282481280225426</v>
       </c>
@@ -1111,24 +1114,24 @@
         <f t="shared" si="3"/>
         <v>96.760072188453975</v>
       </c>
-      <c r="H29" s="20" t="str">
+      <c r="H29" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;69   &amp;&amp; i&lt;=97  ) bandValues[11]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>12</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>4405.1732590198226</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <f t="shared" si="1"/>
         <v>112.77243543090746</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <f t="shared" si="2"/>
         <v>96.760072188453975</v>
       </c>
@@ -1136,24 +1139,24 @@
         <f t="shared" si="3"/>
         <v>135.13533864421606</v>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;97   &amp;&amp; i&lt;=135  ) bandValues[12]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>13</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>6152.2750725595579</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <f t="shared" si="1"/>
         <v>157.49824185752468</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <f t="shared" si="2"/>
         <v>135.13533864421606</v>
       </c>
@@ -1161,24 +1164,24 @@
         <f t="shared" si="3"/>
         <v>188.73032375296265</v>
       </c>
-      <c r="H31" s="20" t="str">
+      <c r="H31" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;135   &amp;&amp; i&lt;=189  ) bandValues[13]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>14</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <f t="shared" si="0"/>
         <v>8592.2814706406498</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <f t="shared" si="1"/>
         <v>219.96240564840065</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <f t="shared" si="2"/>
         <v>188.73032375296265</v>
       </c>
@@ -1186,24 +1189,24 @@
         <f t="shared" si="3"/>
         <v>263.58120282420032</v>
       </c>
-      <c r="H32" s="20" t="str">
+      <c r="H32" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;189   &amp;&amp; i&lt;=264  ) bandValues[14]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>15</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <f t="shared" si="0"/>
         <v>11999.999999999996</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <f t="shared" si="1"/>
         <v>307.19999999999993</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <f t="shared" si="2"/>
         <v>263.58120282420032</v>
       </c>
@@ -1211,24 +1214,24 @@
         <f t="shared" si="3"/>
         <v>368.11811213332692</v>
       </c>
-      <c r="H33" s="20" t="str">
+      <c r="H33" s="19" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">      if (i&gt;264             ) bandValues[15]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>16</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>16759.227510416171</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <f t="shared" si="1"/>
         <v>429.03622426665396</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <f t="shared" si="2"/>
         <v>368.11811213332692</v>
       </c>
@@ -1236,24 +1239,24 @@
         <f t="shared" si="3"/>
         <v>514.11459932894331</v>
       </c>
-      <c r="H34" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>17</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <f t="shared" si="0"/>
         <v>23405.975562157524</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <f t="shared" si="1"/>
         <v>599.19297439123261</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <f t="shared" si="2"/>
         <v>514.11459932894331</v>
       </c>
@@ -1261,24 +1264,24 @@
         <f t="shared" si="3"/>
         <v>718.01362804835128</v>
       </c>
-      <c r="H35" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>18</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <f t="shared" si="0"/>
         <v>32688.839129119919</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <f t="shared" si="1"/>
         <v>836.83428170546995</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <f t="shared" si="2"/>
         <v>718.01362804835128</v>
       </c>
@@ -1286,24 +1289,24 @@
         <f t="shared" si="3"/>
         <v>1002.7794790034712</v>
       </c>
-      <c r="H36" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>19</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>45653.307668026275</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <f t="shared" si="1"/>
         <v>1168.7246763014725</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <f t="shared" si="2"/>
         <v>1002.7794790034712</v>
       </c>
@@ -1311,24 +1314,24 @@
         <f t="shared" si="3"/>
         <v>1400.4841192829813</v>
       </c>
-      <c r="H37" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>20</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <f t="shared" si="0"/>
         <v>63759.514150956631</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <f t="shared" si="1"/>
         <v>1632.2435622644898</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <f t="shared" si="2"/>
         <v>1400.4841192829813</v>
       </c>
@@ -1336,24 +1339,24 @@
         <f t="shared" si="3"/>
         <v>1955.9193316490255</v>
       </c>
-      <c r="H38" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>21</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <f t="shared" si="0"/>
         <v>89046.683634123488</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <f t="shared" si="1"/>
         <v>2279.5951010335611</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <f t="shared" si="2"/>
         <v>1955.9193316490255</v>
       </c>
@@ -1361,24 +1364,24 @@
         <f t="shared" si="3"/>
         <v>2731.6414225939307</v>
       </c>
-      <c r="H39" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>22</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <f t="shared" si="0"/>
         <v>124362.80250602735</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <f t="shared" si="1"/>
         <v>3183.6877441543002</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <f t="shared" si="2"/>
         <v>2731.6414225939307</v>
       </c>
@@ -1386,24 +1389,24 @@
         <f t="shared" si="3"/>
         <v>3815.0166731773816</v>
       </c>
-      <c r="H40" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>23</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <f t="shared" si="0"/>
         <v>173685.3750859556</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <f t="shared" si="1"/>
         <v>4446.345602200463</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <f t="shared" si="2"/>
         <v>3815.0166731773816</v>
       </c>
@@ -1411,24 +1414,24 @@
         <f t="shared" si="3"/>
         <v>5328.0610318175641</v>
       </c>
-      <c r="H41" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>24</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <f t="shared" si="0"/>
         <v>242569.39302479161</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <f t="shared" si="1"/>
         <v>6209.7764614346652</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <f t="shared" si="2"/>
         <v>5328.0610318175641</v>
       </c>
@@ -1436,24 +1439,24 @@
         <f t="shared" si="3"/>
         <v>7441.1822518011086</v>
       </c>
-      <c r="H42" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>25</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <f t="shared" si="0"/>
         <v>338772.97039716999</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <f t="shared" si="1"/>
         <v>8672.588042167552</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <f t="shared" si="2"/>
         <v>7441.1822518011086</v>
       </c>
@@ -1461,24 +1464,24 @@
         <f t="shared" si="3"/>
         <v>10392.37219203381</v>
       </c>
-      <c r="H43" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>26</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <f t="shared" si="0"/>
         <v>473131.10710547137</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <f t="shared" si="1"/>
         <v>12112.156341900067</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <f t="shared" si="2"/>
         <v>10392.37219203381</v>
       </c>
@@ -1486,24 +1489,24 @@
         <f t="shared" si="3"/>
         <v>14514.01082826809</v>
       </c>
-      <c r="H44" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>27</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <f t="shared" si="0"/>
         <v>660775.98885297321</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <f t="shared" si="1"/>
         <v>16915.865314636114</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <f t="shared" si="2"/>
         <v>14514.01082826809</v>
       </c>
@@ -1511,24 +1514,24 @@
         <f t="shared" si="3"/>
         <v>20270.3007966324</v>
       </c>
-      <c r="H45" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>28</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <f t="shared" si="0"/>
         <v>922841.26088393328</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <f t="shared" si="1"/>
         <v>23624.73627862869</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <f t="shared" si="2"/>
         <v>20270.3007966324</v>
       </c>
@@ -1536,24 +1539,24 @@
         <f t="shared" si="3"/>
         <v>28309.54856294439</v>
       </c>
-      <c r="H46" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>29</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <f t="shared" si="0"/>
         <v>1288842.2205960972</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <f t="shared" si="1"/>
         <v>32994.36084726009</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <f t="shared" si="2"/>
         <v>28309.54856294439</v>
       </c>
@@ -1561,24 +1564,24 @@
         <f t="shared" si="3"/>
         <v>39537.18042363003</v>
       </c>
-      <c r="H47" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>30</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <f t="shared" si="0"/>
         <v>1799999.9999999988</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <f t="shared" si="1"/>
         <v>46079.999999999971</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <f t="shared" si="2"/>
         <v>39537.18042363003</v>
       </c>
@@ -1586,24 +1589,24 @@
         <f t="shared" si="3"/>
         <v>55217.716819999019</v>
       </c>
-      <c r="H48" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>31</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <f t="shared" si="0"/>
         <v>2513884.1265624245</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <f t="shared" si="1"/>
         <v>64355.433639998068</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <f t="shared" si="2"/>
         <v>55217.716819999019</v>
       </c>
@@ -1611,24 +1614,24 @@
         <f t="shared" si="3"/>
         <v>77117.189899341465</v>
       </c>
-      <c r="H49" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>32</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <f t="shared" si="0"/>
         <v>3510896.3343236269</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <f t="shared" si="1"/>
         <v>89878.946158684848</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <f t="shared" si="2"/>
         <v>77117.189899341465</v>
       </c>
@@ -1636,24 +1639,24 @@
         <f t="shared" si="3"/>
         <v>107702.04420725265</v>
       </c>
-      <c r="H50" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>33</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <f t="shared" si="0"/>
         <v>4903325.869367986</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <f t="shared" si="1"/>
         <v>125525.14225582044</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <f t="shared" si="2"/>
         <v>107702.04420725265</v>
       </c>
@@ -1661,24 +1664,24 @@
         <f t="shared" si="3"/>
         <v>150416.92185052062</v>
       </c>
-      <c r="H51" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>34</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <f t="shared" si="0"/>
         <v>6847996.1502039386</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <f t="shared" si="1"/>
         <v>175308.70144522082</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <f t="shared" si="2"/>
         <v>150416.92185052062</v>
       </c>
@@ -1686,24 +1689,24 @@
         <f t="shared" si="3"/>
         <v>210072.6178924471</v>
       </c>
-      <c r="H52" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>35</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <f t="shared" si="0"/>
         <v>9563927.1226434931</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <f t="shared" si="1"/>
         <v>244836.53433967341</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <f t="shared" si="2"/>
         <v>210072.6178924471</v>
       </c>
@@ -1711,24 +1714,24 @@
         <f t="shared" si="3"/>
         <v>293387.89974735375</v>
       </c>
-      <c r="H53" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>36</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <f t="shared" si="0"/>
         <v>13357002.545118518</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <f t="shared" si="1"/>
         <v>341939.26515503408</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <f t="shared" si="2"/>
         <v>293387.89974735375</v>
       </c>
@@ -1736,24 +1739,24 @@
         <f t="shared" si="3"/>
         <v>409746.21338908951</v>
       </c>
-      <c r="H54" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>37</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <f t="shared" si="0"/>
         <v>18654420.375904098</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <f t="shared" si="1"/>
         <v>477553.16162314493</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <f t="shared" si="2"/>
         <v>409746.21338908951</v>
       </c>
@@ -1761,24 +1764,24 @@
         <f t="shared" si="3"/>
         <v>572252.50097660709</v>
       </c>
-      <c r="H55" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>38</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="13">
         <f t="shared" si="0"/>
         <v>26052806.262893327</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <f t="shared" si="1"/>
         <v>666951.84033006919</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <f t="shared" si="2"/>
         <v>572252.50097660709</v>
       </c>
@@ -1786,24 +1789,24 @@
         <f t="shared" si="3"/>
         <v>799209.15477263439</v>
       </c>
-      <c r="H56" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>39</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="13">
         <f t="shared" si="0"/>
         <v>36385408.953718729</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <f t="shared" si="1"/>
         <v>931466.46921519947</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <f t="shared" si="2"/>
         <v>799209.15477263439</v>
       </c>
@@ -1811,24 +1814,24 @@
         <f t="shared" si="3"/>
         <v>1116177.3377701661</v>
       </c>
-      <c r="H57" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H57" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>40</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="13">
         <f t="shared" si="0"/>
         <v>50815945.559575491</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <f t="shared" si="1"/>
         <v>1300888.2063251326</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <f t="shared" si="2"/>
         <v>1116177.3377701661</v>
       </c>
@@ -1836,24 +1839,24 @@
         <f t="shared" si="3"/>
         <v>1558855.8288050708</v>
       </c>
-      <c r="H58" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H58" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>41</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="13">
         <f t="shared" si="0"/>
         <v>70969666.065820679</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <f t="shared" si="1"/>
         <v>1816823.4512850093</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <f t="shared" si="2"/>
         <v>1558855.8288050708</v>
       </c>
@@ -1861,24 +1864,24 @@
         <f t="shared" si="3"/>
         <v>2177101.6242402126</v>
       </c>
-      <c r="H59" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H59" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>42</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="13">
         <f t="shared" si="0"/>
         <v>99116398.327945933</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <f t="shared" si="1"/>
         <v>2537379.7971954159</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <f t="shared" si="2"/>
         <v>2177101.6242402126</v>
       </c>
@@ -1886,24 +1889,24 @@
         <f t="shared" si="3"/>
         <v>3040545.1194948596</v>
       </c>
-      <c r="H60" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>43</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="13">
         <f t="shared" si="0"/>
         <v>138426189.13258997</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="13">
         <f t="shared" si="1"/>
         <v>3543710.4417943032</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <f t="shared" si="2"/>
         <v>3040545.1194948596</v>
       </c>
@@ -1911,24 +1914,24 @@
         <f t="shared" si="3"/>
         <v>4246432.2844416574</v>
       </c>
-      <c r="H61" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>44</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <f t="shared" si="0"/>
         <v>193326333.08941451</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <f t="shared" si="1"/>
         <v>4949154.1270890115</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <f t="shared" si="2"/>
         <v>4246432.2844416574</v>
       </c>
@@ -1936,24 +1939,24 @@
         <f t="shared" si="3"/>
         <v>5930577.0635445025</v>
       </c>
-      <c r="H62" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H62" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>45</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="13">
         <f t="shared" si="0"/>
         <v>269999999.9999997</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="13">
         <f t="shared" si="1"/>
         <v>6911999.9999999925</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="13">
         <f t="shared" si="2"/>
         <v>5930577.0635445025</v>
       </c>
@@ -1961,24 +1964,24 @@
         <f t="shared" si="3"/>
         <v>8282657.5229998501</v>
       </c>
-      <c r="H63" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H63" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>46</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="13">
         <f t="shared" si="0"/>
         <v>377082618.98436356</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <f t="shared" si="1"/>
         <v>9653315.0459997077</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="13">
         <f t="shared" si="2"/>
         <v>8282657.5229998501</v>
       </c>
@@ -1986,24 +1989,24 @@
         <f t="shared" si="3"/>
         <v>11567578.484901216</v>
       </c>
-      <c r="H64" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>47</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <f t="shared" si="0"/>
         <v>526634450.14854383</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <f t="shared" si="1"/>
         <v>13481841.923802722</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <f t="shared" si="2"/>
         <v>11567578.484901216</v>
       </c>
@@ -2011,24 +2014,24 @@
         <f t="shared" si="3"/>
         <v>16155306.631087892</v>
       </c>
-      <c r="H65" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>48</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <f t="shared" si="0"/>
         <v>735498880.40519774</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <f t="shared" si="1"/>
         <v>18828771.338373061</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="13">
         <f t="shared" si="2"/>
         <v>16155306.631087892</v>
       </c>
@@ -2036,24 +2039,24 @@
         <f t="shared" si="3"/>
         <v>22562538.277578089</v>
       </c>
-      <c r="H66" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H66" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>49</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <f t="shared" si="0"/>
         <v>1027199422.5305905</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <f t="shared" si="1"/>
         <v>26296305.216783118</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <f t="shared" si="2"/>
         <v>22562538.277578089</v>
       </c>
@@ -2061,24 +2064,24 @@
         <f t="shared" si="3"/>
         <v>31510892.68386706</v>
       </c>
-      <c r="H67" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H67" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>50</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="13">
         <f t="shared" si="0"/>
         <v>1434589068.3965232</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <f t="shared" si="1"/>
         <v>36725480.150950998</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <f t="shared" si="2"/>
         <v>31510892.68386706</v>
       </c>
@@ -2086,24 +2089,24 @@
         <f t="shared" si="3"/>
         <v>44008184.962103046</v>
       </c>
-      <c r="H68" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H68" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>51</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="13">
         <f t="shared" si="0"/>
         <v>2003550381.7677772</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <f t="shared" si="1"/>
         <v>51290889.773255095</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <f t="shared" si="2"/>
         <v>44008184.962103046</v>
       </c>
@@ -2111,24 +2114,24 @@
         <f t="shared" si="3"/>
         <v>61461932.008363396</v>
       </c>
-      <c r="H69" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H69" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>52</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="13">
         <f t="shared" si="0"/>
         <v>2798163056.385613</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="13">
         <f t="shared" si="1"/>
         <v>71632974.243471697</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="13">
         <f t="shared" si="2"/>
         <v>61461932.008363396</v>
       </c>
@@ -2136,24 +2139,24 @@
         <f t="shared" si="3"/>
         <v>85837875.146491021</v>
       </c>
-      <c r="H70" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>53</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="13">
         <f t="shared" si="0"/>
         <v>3907920939.4339986</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="13">
         <f t="shared" si="1"/>
         <v>100042776.04951036</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="13">
         <f t="shared" si="2"/>
         <v>85837875.146491021</v>
       </c>
@@ -2161,24 +2164,24 @@
         <f t="shared" si="3"/>
         <v>119881373.21589512</v>
       </c>
-      <c r="H71" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>54</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="13">
         <f t="shared" si="0"/>
         <v>5457811343.0578079</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="13">
         <f t="shared" si="1"/>
         <v>139719970.38227987</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="13">
         <f t="shared" si="2"/>
         <v>119881373.21589512</v>
       </c>
@@ -2186,24 +2189,24 @@
         <f t="shared" si="3"/>
         <v>167426600.66552484</v>
       </c>
-      <c r="H72" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H72" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>55</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="13">
         <f t="shared" si="0"/>
         <v>7622391833.9363213</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="13">
         <f t="shared" si="1"/>
         <v>195133230.94876984</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="13">
         <f t="shared" si="2"/>
         <v>167426600.66552484</v>
       </c>
@@ -2211,24 +2214,24 @@
         <f t="shared" si="3"/>
         <v>233828374.32076061</v>
       </c>
-      <c r="H73" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>56</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="13">
         <f t="shared" si="0"/>
         <v>10645449909.8731</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="13">
         <f t="shared" si="1"/>
         <v>272523517.69275135</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="13">
         <f t="shared" si="2"/>
         <v>233828374.32076061</v>
       </c>
@@ -2236,24 +2239,24 @@
         <f t="shared" si="3"/>
         <v>326565243.63603181</v>
       </c>
-      <c r="H74" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>57</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="13">
         <f t="shared" si="0"/>
         <v>14867459749.191885</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <f t="shared" si="1"/>
         <v>380606969.57931226</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="13">
         <f t="shared" si="2"/>
         <v>326565243.63603181</v>
       </c>
@@ -2261,24 +2264,24 @@
         <f t="shared" si="3"/>
         <v>456081767.92422873</v>
       </c>
-      <c r="H75" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H75" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>58</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="13">
         <f t="shared" si="0"/>
         <v>20763928369.888485</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="13">
         <f t="shared" si="1"/>
         <v>531556566.26914519</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="13">
         <f t="shared" si="2"/>
         <v>456081767.92422873</v>
       </c>
@@ -2286,24 +2289,24 @@
         <f t="shared" si="3"/>
         <v>636964842.66624832</v>
       </c>
-      <c r="H76" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H76" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>59</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="13">
         <f t="shared" si="0"/>
         <v>28998949963.41217</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <f t="shared" si="1"/>
         <v>742373119.06335151</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="13">
         <f t="shared" si="2"/>
         <v>636964842.66624832</v>
       </c>
@@ -2311,24 +2314,24 @@
         <f t="shared" si="3"/>
         <v>889586559.53167498</v>
       </c>
-      <c r="H77" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>60</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="13">
         <f t="shared" si="0"/>
         <v>40499999999.999939</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="13">
         <f t="shared" si="1"/>
         <v>1036799999.9999985</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="13">
         <f t="shared" si="2"/>
         <v>889586559.53167498</v>
       </c>
@@ -2336,24 +2339,24 @@
         <f t="shared" si="3"/>
         <v>1242398628.4499769</v>
       </c>
-      <c r="H78" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>61</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="13">
         <f t="shared" si="0"/>
         <v>56562392847.65451</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="13">
         <f t="shared" si="1"/>
         <v>1447997256.8999555</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="13">
         <f t="shared" si="2"/>
         <v>1242398628.4499769</v>
       </c>
@@ -2361,24 +2364,24 @@
         <f t="shared" si="3"/>
         <v>1735136772.7351818</v>
       </c>
-      <c r="H79" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H79" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>62</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="13">
         <f t="shared" si="0"/>
         <v>78995167522.281555</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="13">
         <f t="shared" si="1"/>
         <v>2022276288.5704079</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="13">
         <f t="shared" si="2"/>
         <v>1735136772.7351818</v>
       </c>
@@ -2386,12 +2389,12 @@
         <f t="shared" si="3"/>
         <v>2423295994.6631827</v>
       </c>
-      <c r="H80" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H80" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>63</v>
       </c>
@@ -2411,27 +2414,26 @@
         <f t="shared" si="3"/>
         <v>1412157850.3779788</v>
       </c>
-      <c r="H81" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="H81" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:F18 H17 H18">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$B$18&lt;$B$9</formula>
+  <conditionalFormatting sqref="B19:F81 H19:H81">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:F81 H19:H81">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$B19&lt;$B$9</formula>
+  <conditionalFormatting sqref="H17:H18 B18:F18">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FFT.xlsx
+++ b/FFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ESP32_FFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816E0E4-EBC8-4F09-ADAC-515C27EF061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3908D5-BA42-4191-A7D4-A0F1D4D5AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="H18" sqref="H18:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -746,7 +746,7 @@
       </c>
       <c r="B11">
         <f>POWER(B7/B6,1/(B9-1))</f>
-        <v>1.3966022925346813</v>
+        <v>1.2545117989873635</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H17" s="18" t="str">
         <f>"//"&amp;B9&amp;" bands, "&amp;B7/1000&amp;"kHz top band"</f>
-        <v>//16 bands, 12kHz top band</v>
+        <v>//16 bands, 15kHz top band</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -826,22 +826,22 @@
       </c>
       <c r="C18" s="15">
         <f t="shared" ref="C18:C81" si="0">$B$6*POWER($B$11,B18)</f>
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" ref="D18:D81" si="1">C18/$B$13</f>
-        <v>2.048</v>
+        <v>12.8</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="16">
         <f>((D19-D18)/2)+D18</f>
-        <v>2.454120747555514</v>
+        <v>14.428875513519127</v>
       </c>
       <c r="H18" s="19" t="str">
         <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];"</f>
-        <v xml:space="preserve">      if (i&lt;=2 )           bandValues[0]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&lt;=14 )           bandValues[0]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -850,23 +850,23 @@
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
-        <v>111.7281834027745</v>
+        <v>627.2558994936818</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>2.8602414951110275</v>
+        <v>16.057751027038254</v>
       </c>
       <c r="E19" s="13">
         <f>F18</f>
-        <v>2.454120747555514</v>
+        <v>14.428875513519127</v>
       </c>
       <c r="F19" s="5">
         <f>((D20-D19)/2)+D19</f>
-        <v>3.4274306621929562</v>
+        <v>18.101194577829599</v>
       </c>
       <c r="H19" s="19" t="str">
         <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;2   &amp;&amp; i&lt;=3  ) bandValues[1]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;14   &amp;&amp; i&lt;=18  ) bandValues[1]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -875,23 +875,23 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
-        <v>156.03983708105019</v>
+        <v>786.89992689925555</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>3.9946198292748849</v>
+        <v>20.144638128620944</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" ref="E20:E81" si="2">F19</f>
-        <v>3.4274306621929562</v>
+        <v>18.101194577829599</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ref="F20:F81" si="3">((D21-D20)/2)+D20</f>
-        <v>4.7867575203223431</v>
+        <v>22.708162173653321</v>
       </c>
       <c r="H20" s="19" t="str">
         <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;3   &amp;&amp; i&lt;=5  ) bandValues[2]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=23  ) bandValues[2]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -900,23 +900,23 @@
       </c>
       <c r="C21" s="13">
         <f t="shared" si="0"/>
-        <v>217.92559419413288</v>
+        <v>987.17524291740995</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>5.5788952113698018</v>
+        <v>25.271686218685694</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="2"/>
-        <v>4.7867575203223431</v>
+        <v>22.708162173653321</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>6.6851965266898112</v>
+        <v>28.487657380166624</v>
       </c>
       <c r="H21" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;5   &amp;&amp; i&lt;=7  ) bandValues[3]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;23   &amp;&amp; i&lt;=28  ) bandValues[3]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -925,23 +925,23 @@
       </c>
       <c r="C22" s="13">
         <f t="shared" si="0"/>
-        <v>304.35538445350858</v>
+        <v>1238.4229899081076</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>7.7914978420098198</v>
+        <v>31.703628541647557</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="2"/>
-        <v>6.6851965266898112</v>
+        <v>28.487657380166624</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>9.3365607952198779</v>
+        <v>35.738102308928475</v>
       </c>
       <c r="H22" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;7   &amp;&amp; i&lt;=9  ) bandValues[4]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;28   &amp;&amp; i&lt;=36  ) bandValues[4]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -950,23 +950,23 @@
       </c>
       <c r="C23" s="13">
         <f t="shared" si="0"/>
-        <v>425.06342767304437</v>
+        <v>1553.6162529769297</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>10.881623748429936</v>
+        <v>39.772576076209397</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="2"/>
-        <v>9.3365607952198779</v>
+        <v>35.738102308928475</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>13.039462210993507</v>
+        <v>44.833871019968313</v>
       </c>
       <c r="H23" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;9   &amp;&amp; i&lt;=13  ) bandValues[5]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;36   &amp;&amp; i&lt;=45  ) bandValues[5]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -975,23 +975,23 @@
       </c>
       <c r="C24" s="13">
         <f t="shared" si="0"/>
-        <v>593.64455756082339</v>
+        <v>1949.0299204580947</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>15.197300673557079</v>
+        <v>49.895165963727223</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="2"/>
-        <v>13.039462210993507</v>
+        <v>44.833871019968313</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
-        <v>18.210942817292878</v>
+        <v>56.244620188827867</v>
       </c>
       <c r="H24" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;13   &amp;&amp; i&lt;=18  ) bandValues[6]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;45   &amp;&amp; i&lt;=56  ) bandValues[6]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1000,23 +1000,23 @@
       </c>
       <c r="C25" s="13">
         <f t="shared" si="0"/>
-        <v>829.08535004018268</v>
+        <v>2445.0810317940827</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>21.224584961028675</v>
+        <v>62.594074413928517</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="2"/>
-        <v>18.210942817292878</v>
+        <v>56.244620188827867</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>25.433444487849222</v>
+        <v>70.559539656447441</v>
       </c>
       <c r="H25" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=25  ) bandValues[7]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;56   &amp;&amp; i&lt;=71  ) bandValues[7]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1025,23 +1025,23 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" si="0"/>
-        <v>1157.9025005730377</v>
+        <v>3067.3830038658739</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>29.642304014669765</v>
+        <v>78.525004898966372</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="2"/>
-        <v>25.433444487849222</v>
+        <v>70.559539656447441</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
-        <v>35.520406878783767</v>
+        <v>88.51777503013011</v>
       </c>
       <c r="H26" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;25   &amp;&amp; i&lt;=36  ) bandValues[8]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;71   &amp;&amp; i&lt;=89  ) bandValues[8]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1050,23 +1050,23 @@
       </c>
       <c r="C27" s="13">
         <f t="shared" si="0"/>
-        <v>1617.1292868319442</v>
+        <v>3848.0681703630407</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>41.398509742897772</v>
+        <v>98.510545161293848</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="2"/>
-        <v>35.520406878783767</v>
+        <v>88.51777503013011</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="3"/>
-        <v>49.607881678674076</v>
+        <v>111.04659319540724</v>
       </c>
       <c r="H27" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;36   &amp;&amp; i&lt;=50  ) bandValues[9]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;89   &amp;&amp; i&lt;=111  ) bandValues[9]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1075,23 +1075,23 @@
       </c>
       <c r="C28" s="13">
         <f t="shared" si="0"/>
-        <v>2258.4864693144677</v>
+        <v>4827.4469230281502</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>57.817253614450372</v>
+        <v>123.58264122952065</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="2"/>
-        <v>49.607881678674076</v>
+        <v>111.04659319540724</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="3"/>
-        <v>69.282481280225426</v>
+        <v>139.30926140098825</v>
       </c>
       <c r="H28" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;50   &amp;&amp; i&lt;=69  ) bandValues[10]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;111   &amp;&amp; i&lt;=139  ) bandValues[10]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1100,23 +1100,23 @@
       </c>
       <c r="C29" s="13">
         <f t="shared" si="0"/>
-        <v>3154.2073807031438</v>
+        <v>6056.0891239240582</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>80.747708946000486</v>
+        <v>155.03588157245588</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="2"/>
-        <v>69.282481280225426</v>
+        <v>139.30926140098825</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="3"/>
-        <v>96.760072188453975</v>
+        <v>174.76511213575469</v>
       </c>
       <c r="H29" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;69   &amp;&amp; i&lt;=97  ) bandValues[11]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;139   &amp;&amp; i&lt;=175  ) bandValues[11]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1125,23 +1125,23 @@
       </c>
       <c r="C30" s="13">
         <f t="shared" si="0"/>
-        <v>4405.1732590198226</v>
+        <v>7597.435261681776</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>112.77243543090746</v>
+        <v>194.49434269905348</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="2"/>
-        <v>96.760072188453975</v>
+        <v>174.76511213575469</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="3"/>
-        <v>135.13533864421606</v>
+        <v>219.24489522565392</v>
       </c>
       <c r="H30" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;97   &amp;&amp; i&lt;=135  ) bandValues[12]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;175   &amp;&amp; i&lt;=219  ) bandValues[12]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1150,23 +1150,23 @@
       </c>
       <c r="C31" s="13">
         <f t="shared" si="0"/>
-        <v>6152.2750725595579</v>
+        <v>9531.0721778224361</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>157.49824185752468</v>
+        <v>243.99544775225436</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="2"/>
-        <v>135.13533864421606</v>
+        <v>219.24489522565392</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="3"/>
-        <v>188.73032375296265</v>
+        <v>275.04530792833111</v>
       </c>
       <c r="H31" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;135   &amp;&amp; i&lt;=189  ) bandValues[13]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;219   &amp;&amp; i&lt;=275  ) bandValues[13]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1175,23 +1175,23 @@
       </c>
       <c r="C32" s="13">
         <f t="shared" si="0"/>
-        <v>8592.2814706406498</v>
+        <v>11956.842504078433</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>219.96240564840065</v>
+        <v>306.09516810440789</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="2"/>
-        <v>188.73032375296265</v>
+        <v>275.04530792833111</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="3"/>
-        <v>263.58120282420032</v>
+        <v>345.047584052204</v>
       </c>
       <c r="H32" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;189   &amp;&amp; i&lt;=264  ) bandValues[14]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;275   &amp;&amp; i&lt;=345  ) bandValues[14]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1200,23 +1200,23 @@
       </c>
       <c r="C33" s="13">
         <f t="shared" si="0"/>
-        <v>11999.999999999996</v>
+        <v>15000.000000000005</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>307.19999999999993</v>
+        <v>384.00000000000011</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="2"/>
-        <v>263.58120282420032</v>
+        <v>345.047584052204</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="3"/>
-        <v>368.11811213332692</v>
+        <v>432.86626540557393</v>
       </c>
       <c r="H33" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;264             ) bandValues[15]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;345             ) bandValues[15]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1225,19 +1225,19 @@
       </c>
       <c r="C34" s="13">
         <f t="shared" si="0"/>
-        <v>16759.227510416171</v>
+        <v>18817.67698481046</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>429.03622426665396</v>
+        <v>481.73253081114774</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="2"/>
-        <v>368.11811213332692</v>
+        <v>432.86626540557393</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="3"/>
-        <v>514.11459932894331</v>
+        <v>543.03583733488813</v>
       </c>
       <c r="H34" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1250,19 +1250,19 @@
       </c>
       <c r="C35" s="13">
         <f t="shared" si="0"/>
-        <v>23405.975562157524</v>
+        <v>23606.997806977677</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>599.19297439123261</v>
+        <v>604.33914385862852</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="2"/>
-        <v>514.11459932894331</v>
+        <v>543.03583733488813</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="3"/>
-        <v>718.01362804835128</v>
+        <v>681.24486520959988</v>
       </c>
       <c r="H35" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1275,19 +1275,19 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" si="0"/>
-        <v>32688.839129119919</v>
+        <v>29615.257287522312</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>836.83428170546995</v>
+        <v>758.15058656057124</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="2"/>
-        <v>718.01362804835128</v>
+        <v>681.24486520959988</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="3"/>
-        <v>1002.7794790034712</v>
+        <v>854.62972140499915</v>
       </c>
       <c r="H36" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1300,19 +1300,19 @@
       </c>
       <c r="C37" s="13">
         <f t="shared" si="0"/>
-        <v>45653.307668026275</v>
+        <v>37152.689697243244</v>
       </c>
       <c r="D37" s="13">
         <f t="shared" si="1"/>
-        <v>1168.7246763014725</v>
+        <v>951.10885624942705</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="2"/>
-        <v>1002.7794790034712</v>
+        <v>854.62972140499915</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="3"/>
-        <v>1400.4841192829813</v>
+        <v>1072.1430692678548</v>
       </c>
       <c r="H37" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1325,19 +1325,19 @@
       </c>
       <c r="C38" s="13">
         <f t="shared" si="0"/>
-        <v>63759.514150956631</v>
+        <v>46608.487589307915</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="1"/>
-        <v>1632.2435622644898</v>
+        <v>1193.1772822862827</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="2"/>
-        <v>1400.4841192829813</v>
+        <v>1072.1430692678548</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="3"/>
-        <v>1955.9193316490255</v>
+        <v>1345.01613059905</v>
       </c>
       <c r="H38" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1350,19 +1350,19 @@
       </c>
       <c r="C39" s="13">
         <f t="shared" si="0"/>
-        <v>89046.683634123488</v>
+        <v>58470.897613742876</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" si="1"/>
-        <v>2279.5951010335611</v>
+        <v>1496.8549789118176</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="2"/>
-        <v>1955.9193316490255</v>
+        <v>1345.01613059905</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="3"/>
-        <v>2731.6414225939307</v>
+        <v>1687.3386056648369</v>
       </c>
       <c r="H39" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1375,19 +1375,19 @@
       </c>
       <c r="C40" s="13">
         <f t="shared" si="0"/>
-        <v>124362.80250602735</v>
+        <v>73352.430953822506</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="1"/>
-        <v>3183.6877441543002</v>
+        <v>1877.8222324178562</v>
       </c>
       <c r="E40" s="13">
         <f t="shared" si="2"/>
-        <v>2731.6414225939307</v>
+        <v>1687.3386056648369</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="3"/>
-        <v>3815.0166731773816</v>
+        <v>2116.7861896934241</v>
       </c>
       <c r="H40" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1400,19 +1400,19 @@
       </c>
       <c r="C41" s="13">
         <f t="shared" si="0"/>
-        <v>173685.3750859556</v>
+        <v>92021.490115976252</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" si="1"/>
-        <v>4446.345602200463</v>
+        <v>2355.7501469689919</v>
       </c>
       <c r="E41" s="13">
         <f t="shared" si="2"/>
-        <v>3815.0166731773816</v>
+        <v>2116.7861896934241</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="3"/>
-        <v>5328.0610318175641</v>
+        <v>2655.533250903904</v>
       </c>
       <c r="H41" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1425,19 +1425,19 @@
       </c>
       <c r="C42" s="13">
         <f t="shared" si="0"/>
-        <v>242569.39302479161</v>
+        <v>115442.04511089125</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="1"/>
-        <v>6209.7764614346652</v>
+        <v>2955.3163548388161</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="2"/>
-        <v>5328.0610318175641</v>
+        <v>2655.533250903904</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="3"/>
-        <v>7441.1822518011086</v>
+        <v>3331.397795862219</v>
       </c>
       <c r="H42" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1450,19 +1450,19 @@
       </c>
       <c r="C43" s="13">
         <f t="shared" si="0"/>
-        <v>338772.97039716999</v>
+        <v>144823.40769084459</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="1"/>
-        <v>8672.588042167552</v>
+        <v>3707.4792368856215</v>
       </c>
       <c r="E43" s="13">
         <f t="shared" si="2"/>
-        <v>7441.1822518011086</v>
+        <v>3331.397795862219</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="3"/>
-        <v>10392.37219203381</v>
+        <v>4179.2778420296499</v>
       </c>
       <c r="H43" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1475,19 +1475,19 @@
       </c>
       <c r="C44" s="13">
         <f t="shared" si="0"/>
-        <v>473131.10710547137</v>
+        <v>181682.6737177218</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="1"/>
-        <v>12112.156341900067</v>
+        <v>4651.0764471736784</v>
       </c>
       <c r="E44" s="13">
         <f t="shared" si="2"/>
-        <v>10392.37219203381</v>
+        <v>4179.2778420296499</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="3"/>
-        <v>14514.01082826809</v>
+        <v>5242.9533640726422</v>
       </c>
       <c r="H44" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1500,19 +1500,19 @@
       </c>
       <c r="C45" s="13">
         <f t="shared" si="0"/>
-        <v>660775.98885297321</v>
+        <v>227923.05785045336</v>
       </c>
       <c r="D45" s="13">
         <f t="shared" si="1"/>
-        <v>16915.865314636114</v>
+        <v>5834.830280971606</v>
       </c>
       <c r="E45" s="13">
         <f t="shared" si="2"/>
-        <v>14514.01082826809</v>
+        <v>5242.9533640726422</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="3"/>
-        <v>20270.3007966324</v>
+        <v>6577.34685676962</v>
       </c>
       <c r="H45" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1525,19 +1525,19 @@
       </c>
       <c r="C46" s="13">
         <f t="shared" si="0"/>
-        <v>922841.26088393328</v>
+        <v>285932.16533467319</v>
       </c>
       <c r="D46" s="13">
         <f t="shared" si="1"/>
-        <v>23624.73627862869</v>
+        <v>7319.8634325676339</v>
       </c>
       <c r="E46" s="13">
         <f t="shared" si="2"/>
-        <v>20270.3007966324</v>
+        <v>6577.34685676962</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="3"/>
-        <v>28309.54856294439</v>
+        <v>8251.3592378499379</v>
       </c>
       <c r="H46" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1550,19 +1550,19 @@
       </c>
       <c r="C47" s="13">
         <f t="shared" si="0"/>
-        <v>1288842.2205960972</v>
+        <v>358705.27512235317</v>
       </c>
       <c r="D47" s="13">
         <f t="shared" si="1"/>
-        <v>32994.36084726009</v>
+        <v>9182.8550431322419</v>
       </c>
       <c r="E47" s="13">
         <f t="shared" si="2"/>
-        <v>28309.54856294439</v>
+        <v>8251.3592378499379</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="3"/>
-        <v>39537.18042363003</v>
+        <v>10351.427521566126</v>
       </c>
       <c r="H47" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1575,19 +1575,19 @@
       </c>
       <c r="C48" s="13">
         <f t="shared" si="0"/>
-        <v>1799999.9999999988</v>
+        <v>450000.00000000041</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="1"/>
-        <v>46079.999999999971</v>
+        <v>11520.000000000011</v>
       </c>
       <c r="E48" s="13">
         <f t="shared" si="2"/>
-        <v>39537.18042363003</v>
+        <v>10351.427521566126</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="3"/>
-        <v>55217.716819999019</v>
+        <v>12985.987962167226</v>
       </c>
       <c r="H48" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="C49" s="13">
         <f t="shared" si="0"/>
-        <v>2513884.1265624245</v>
+        <v>564530.30954431405</v>
       </c>
       <c r="D49" s="13">
         <f t="shared" si="1"/>
-        <v>64355.433639998068</v>
+        <v>14451.97592433444</v>
       </c>
       <c r="E49" s="13">
         <f t="shared" si="2"/>
-        <v>55217.716819999019</v>
+        <v>12985.987962167226</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="3"/>
-        <v>77117.189899341465</v>
+        <v>16291.075120046651</v>
       </c>
       <c r="H49" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1625,19 +1625,19 @@
       </c>
       <c r="C50" s="13">
         <f t="shared" si="0"/>
-        <v>3510896.3343236269</v>
+        <v>708209.93420933059</v>
       </c>
       <c r="D50" s="13">
         <f t="shared" si="1"/>
-        <v>89878.946158684848</v>
+        <v>18130.174315758864</v>
       </c>
       <c r="E50" s="13">
         <f t="shared" si="2"/>
-        <v>77117.189899341465</v>
+        <v>16291.075120046651</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="3"/>
-        <v>107702.04420725265</v>
+        <v>20437.345956288005</v>
       </c>
       <c r="H50" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1650,19 +1650,19 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" si="0"/>
-        <v>4903325.869367986</v>
+        <v>888457.71862566972</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="1"/>
-        <v>125525.14225582044</v>
+        <v>22744.517596817146</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="2"/>
-        <v>107702.04420725265</v>
+        <v>20437.345956288005</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="3"/>
-        <v>150416.92185052062</v>
+        <v>25638.891642149982</v>
       </c>
       <c r="H51" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1675,19 +1675,19 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" si="0"/>
-        <v>6847996.1502039386</v>
+        <v>1114580.6909172977</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="1"/>
-        <v>175308.70144522082</v>
+        <v>28533.265687482821</v>
       </c>
       <c r="E52" s="13">
         <f t="shared" si="2"/>
-        <v>150416.92185052062</v>
+        <v>25638.891642149982</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="3"/>
-        <v>210072.6178924471</v>
+        <v>32164.292078035658</v>
       </c>
       <c r="H52" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1700,19 +1700,19 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" si="0"/>
-        <v>9563927.1226434931</v>
+        <v>1398254.6276792379</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="1"/>
-        <v>244836.53433967341</v>
+        <v>35795.318468588492</v>
       </c>
       <c r="E53" s="13">
         <f t="shared" si="2"/>
-        <v>210072.6178924471</v>
+        <v>32164.292078035658</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="3"/>
-        <v>293387.89974735375</v>
+        <v>40350.48391797152</v>
       </c>
       <c r="H53" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1725,19 +1725,19 @@
       </c>
       <c r="C54" s="13">
         <f t="shared" si="0"/>
-        <v>13357002.545118518</v>
+        <v>1754126.9284122868</v>
       </c>
       <c r="D54" s="13">
         <f t="shared" si="1"/>
-        <v>341939.26515503408</v>
+        <v>44905.649367354541</v>
       </c>
       <c r="E54" s="13">
         <f t="shared" si="2"/>
-        <v>293387.89974735375</v>
+        <v>40350.48391797152</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="3"/>
-        <v>409746.21338908951</v>
+        <v>50620.158169945134</v>
       </c>
       <c r="H54" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1750,19 +1750,19 @@
       </c>
       <c r="C55" s="13">
         <f t="shared" si="0"/>
-        <v>18654420.375904098</v>
+        <v>2200572.9286146765</v>
       </c>
       <c r="D55" s="13">
         <f t="shared" si="1"/>
-        <v>477553.16162314493</v>
+        <v>56334.666972535721</v>
       </c>
       <c r="E55" s="13">
         <f t="shared" si="2"/>
-        <v>409746.21338908951</v>
+        <v>50620.158169945134</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="3"/>
-        <v>572252.50097660709</v>
+        <v>63503.585690802756</v>
       </c>
       <c r="H55" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1775,19 +1775,19 @@
       </c>
       <c r="C56" s="13">
         <f t="shared" si="0"/>
-        <v>26052806.262893327</v>
+        <v>2760644.7034792886</v>
       </c>
       <c r="D56" s="13">
         <f t="shared" si="1"/>
-        <v>666951.84033006919</v>
+        <v>70672.504409069792</v>
       </c>
       <c r="E56" s="13">
         <f t="shared" si="2"/>
-        <v>572252.50097660709</v>
+        <v>63503.585690802756</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="3"/>
-        <v>799209.15477263439</v>
+        <v>79665.997527117142</v>
       </c>
       <c r="H56" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1800,19 +1800,19 @@
       </c>
       <c r="C57" s="13">
         <f t="shared" si="0"/>
-        <v>36385408.953718729</v>
+        <v>3463261.3533267388</v>
       </c>
       <c r="D57" s="13">
         <f t="shared" si="1"/>
-        <v>931466.46921519947</v>
+        <v>88659.490645164507</v>
       </c>
       <c r="E57" s="13">
         <f t="shared" si="2"/>
-        <v>799209.15477263439</v>
+        <v>79665.997527117142</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="3"/>
-        <v>1116177.3377701661</v>
+        <v>99941.933875866598</v>
       </c>
       <c r="H57" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1825,19 +1825,19 @@
       </c>
       <c r="C58" s="13">
         <f t="shared" si="0"/>
-        <v>50815945.559575491</v>
+        <v>4344702.2307253396</v>
       </c>
       <c r="D58" s="13">
         <f t="shared" si="1"/>
-        <v>1300888.2063251326</v>
+        <v>111224.37710656869</v>
       </c>
       <c r="E58" s="13">
         <f t="shared" si="2"/>
-        <v>1116177.3377701661</v>
+        <v>99941.933875866598</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="3"/>
-        <v>1558855.8288050708</v>
+        <v>125378.33526088955</v>
       </c>
       <c r="H58" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C59" s="13">
         <f t="shared" si="0"/>
-        <v>70969666.065820679</v>
+        <v>5450480.2115316568</v>
       </c>
       <c r="D59" s="13">
         <f t="shared" si="1"/>
-        <v>1816823.4512850093</v>
+        <v>139532.29341521041</v>
       </c>
       <c r="E59" s="13">
         <f t="shared" si="2"/>
-        <v>1558855.8288050708</v>
+        <v>125378.33526088955</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="3"/>
-        <v>2177101.6242402126</v>
+        <v>157288.60092217935</v>
       </c>
       <c r="H59" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1875,19 +1875,19 @@
       </c>
       <c r="C60" s="13">
         <f t="shared" si="0"/>
-        <v>99116398.327945933</v>
+        <v>6837691.7355136042</v>
       </c>
       <c r="D60" s="13">
         <f t="shared" si="1"/>
-        <v>2537379.7971954159</v>
+        <v>175044.90842914826</v>
       </c>
       <c r="E60" s="13">
         <f t="shared" si="2"/>
-        <v>2177101.6242402126</v>
+        <v>157288.60092217935</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="3"/>
-        <v>3040545.1194948596</v>
+        <v>197320.40570308868</v>
       </c>
       <c r="H60" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1900,19 +1900,19 @@
       </c>
       <c r="C61" s="13">
         <f t="shared" si="0"/>
-        <v>138426189.13258997</v>
+        <v>8577964.9600401986</v>
       </c>
       <c r="D61" s="13">
         <f t="shared" si="1"/>
-        <v>3543710.4417943032</v>
+        <v>219595.90297702909</v>
       </c>
       <c r="E61" s="13">
         <f t="shared" si="2"/>
-        <v>3040545.1194948596</v>
+        <v>197320.40570308868</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="3"/>
-        <v>4246432.2844416574</v>
+        <v>247540.77713549818</v>
       </c>
       <c r="H61" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1925,19 +1925,19 @@
       </c>
       <c r="C62" s="13">
         <f t="shared" si="0"/>
-        <v>193326333.08941451</v>
+        <v>10761158.253670597</v>
       </c>
       <c r="D62" s="13">
         <f t="shared" si="1"/>
-        <v>4949154.1270890115</v>
+        <v>275485.65129396727</v>
       </c>
       <c r="E62" s="13">
         <f t="shared" si="2"/>
-        <v>4246432.2844416574</v>
+        <v>247540.77713549818</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="3"/>
-        <v>5930577.0635445025</v>
+        <v>310542.82564698387</v>
       </c>
       <c r="H62" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="C63" s="13">
         <f t="shared" si="0"/>
-        <v>269999999.9999997</v>
+        <v>13500000.000000019</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" si="1"/>
-        <v>6911999.9999999925</v>
+        <v>345600.00000000047</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" si="2"/>
-        <v>5930577.0635445025</v>
+        <v>310542.82564698387</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="3"/>
-        <v>8282657.5229998501</v>
+        <v>389579.63886501692</v>
       </c>
       <c r="H63" s="19" t="str">
         <f t="shared" si="4"/>
@@ -1975,19 +1975,19 @@
       </c>
       <c r="C64" s="13">
         <f t="shared" si="0"/>
-        <v>377082618.98436356</v>
+        <v>16935909.28632943</v>
       </c>
       <c r="D64" s="13">
         <f t="shared" si="1"/>
-        <v>9653315.0459997077</v>
+        <v>433559.27773003338</v>
       </c>
       <c r="E64" s="13">
         <f t="shared" si="2"/>
-        <v>8282657.5229998501</v>
+        <v>389579.63886501692</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="3"/>
-        <v>11567578.484901216</v>
+        <v>488732.25360139977</v>
       </c>
       <c r="H64" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2000,19 +2000,19 @@
       </c>
       <c r="C65" s="13">
         <f t="shared" si="0"/>
-        <v>526634450.14854383</v>
+        <v>21246298.02627993</v>
       </c>
       <c r="D65" s="13">
         <f t="shared" si="1"/>
-        <v>13481841.923802722</v>
+        <v>543905.22947276616</v>
       </c>
       <c r="E65" s="13">
         <f t="shared" si="2"/>
-        <v>11567578.484901216</v>
+        <v>488732.25360139977</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="3"/>
-        <v>16155306.631087892</v>
+        <v>613120.37868864043</v>
       </c>
       <c r="H65" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2025,19 +2025,19 @@
       </c>
       <c r="C66" s="13">
         <f t="shared" si="0"/>
-        <v>735498880.40519774</v>
+        <v>26653731.558770105</v>
       </c>
       <c r="D66" s="13">
         <f t="shared" si="1"/>
-        <v>18828771.338373061</v>
+        <v>682335.52790451469</v>
       </c>
       <c r="E66" s="13">
         <f t="shared" si="2"/>
-        <v>16155306.631087892</v>
+        <v>613120.37868864043</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="3"/>
-        <v>22562538.277578089</v>
+        <v>769166.74926449987</v>
       </c>
       <c r="H66" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2050,19 +2050,19 @@
       </c>
       <c r="C67" s="13">
         <f t="shared" si="0"/>
-        <v>1027199422.5305905</v>
+        <v>33437420.727518946</v>
       </c>
       <c r="D67" s="13">
         <f t="shared" si="1"/>
-        <v>26296305.216783118</v>
+        <v>855997.97062448505</v>
       </c>
       <c r="E67" s="13">
         <f t="shared" si="2"/>
-        <v>22562538.277578089</v>
+        <v>769166.74926449987</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="3"/>
-        <v>31510892.68386706</v>
+        <v>964928.76234107011</v>
       </c>
       <c r="H67" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2075,19 +2075,19 @@
       </c>
       <c r="C68" s="13">
         <f t="shared" si="0"/>
-        <v>1434589068.3965232</v>
+        <v>41947638.830377154</v>
       </c>
       <c r="D68" s="13">
         <f t="shared" si="1"/>
-        <v>36725480.150950998</v>
+        <v>1073859.5540576552</v>
       </c>
       <c r="E68" s="13">
         <f t="shared" si="2"/>
-        <v>31510892.68386706</v>
+        <v>964928.76234107011</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="3"/>
-        <v>44008184.962103046</v>
+        <v>1210514.5175391461</v>
       </c>
       <c r="H68" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2100,19 +2100,19 @@
       </c>
       <c r="C69" s="13">
         <f t="shared" si="0"/>
-        <v>2003550381.7677772</v>
+        <v>52623807.852368638</v>
       </c>
       <c r="D69" s="13">
         <f t="shared" si="1"/>
-        <v>51290889.773255095</v>
+        <v>1347169.4810206371</v>
       </c>
       <c r="E69" s="13">
         <f t="shared" si="2"/>
-        <v>44008184.962103046</v>
+        <v>1210514.5175391461</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="3"/>
-        <v>61461932.008363396</v>
+        <v>1518604.7450983548</v>
       </c>
       <c r="H69" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2125,19 +2125,19 @@
       </c>
       <c r="C70" s="13">
         <f t="shared" si="0"/>
-        <v>2798163056.385613</v>
+        <v>66017187.858440317</v>
       </c>
       <c r="D70" s="13">
         <f t="shared" si="1"/>
-        <v>71632974.243471697</v>
+        <v>1690040.0091760722</v>
       </c>
       <c r="E70" s="13">
         <f t="shared" si="2"/>
-        <v>61461932.008363396</v>
+        <v>1518604.7450983548</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="3"/>
-        <v>85837875.146491021</v>
+        <v>1905107.5707240836</v>
       </c>
       <c r="H70" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2150,19 +2150,19 @@
       </c>
       <c r="C71" s="13">
         <f t="shared" si="0"/>
-        <v>3907920939.4339986</v>
+        <v>82819341.1043787</v>
       </c>
       <c r="D71" s="13">
         <f t="shared" si="1"/>
-        <v>100042776.04951036</v>
+        <v>2120175.132272095</v>
       </c>
       <c r="E71" s="13">
         <f t="shared" si="2"/>
-        <v>85837875.146491021</v>
+        <v>1905107.5707240836</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="3"/>
-        <v>119881373.21589512</v>
+        <v>2389979.9258135157</v>
       </c>
       <c r="H71" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2175,19 +2175,19 @@
       </c>
       <c r="C72" s="13">
         <f t="shared" si="0"/>
-        <v>5457811343.0578079</v>
+        <v>103897840.59980221</v>
       </c>
       <c r="D72" s="13">
         <f t="shared" si="1"/>
-        <v>139719970.38227987</v>
+        <v>2659784.7193549364</v>
       </c>
       <c r="E72" s="13">
         <f t="shared" si="2"/>
-        <v>119881373.21589512</v>
+        <v>2389979.9258135157</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" si="3"/>
-        <v>167426600.66552484</v>
+        <v>2998258.0162759991</v>
       </c>
       <c r="H72" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2200,19 +2200,19 @@
       </c>
       <c r="C73" s="13">
         <f t="shared" si="0"/>
-        <v>7622391833.9363213</v>
+        <v>130341066.92176022</v>
       </c>
       <c r="D73" s="13">
         <f t="shared" si="1"/>
-        <v>195133230.94876984</v>
+        <v>3336731.3131970614</v>
       </c>
       <c r="E73" s="13">
         <f t="shared" si="2"/>
-        <v>167426600.66552484</v>
+        <v>2998258.0162759991</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="3"/>
-        <v>233828374.32076061</v>
+        <v>3761350.0578266876</v>
       </c>
       <c r="H73" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2225,19 +2225,19 @@
       </c>
       <c r="C74" s="13">
         <f t="shared" si="0"/>
-        <v>10645449909.8731</v>
+        <v>163514406.34594974</v>
       </c>
       <c r="D74" s="13">
         <f t="shared" si="1"/>
-        <v>272523517.69275135</v>
+        <v>4185968.8024563133</v>
       </c>
       <c r="E74" s="13">
         <f t="shared" si="2"/>
-        <v>233828374.32076061</v>
+        <v>3761350.0578266876</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="3"/>
-        <v>326565243.63603181</v>
+        <v>4718658.0276653823</v>
       </c>
       <c r="H74" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2250,19 +2250,19 @@
       </c>
       <c r="C75" s="13">
         <f t="shared" si="0"/>
-        <v>14867459749.191885</v>
+        <v>205130752.06540823</v>
       </c>
       <c r="D75" s="13">
         <f t="shared" si="1"/>
-        <v>380606969.57931226</v>
+        <v>5251347.2528744508</v>
       </c>
       <c r="E75" s="13">
         <f t="shared" si="2"/>
-        <v>326565243.63603181</v>
+        <v>4718658.0276653823</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="3"/>
-        <v>456081767.92422873</v>
+        <v>5919612.171092663</v>
       </c>
       <c r="H75" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2275,19 +2275,19 @@
       </c>
       <c r="C76" s="13">
         <f t="shared" si="0"/>
-        <v>20763928369.888485</v>
+        <v>257338948.80120608</v>
       </c>
       <c r="D76" s="13">
         <f t="shared" si="1"/>
-        <v>531556566.26914519</v>
+        <v>6587877.0893108761</v>
       </c>
       <c r="E76" s="13">
         <f t="shared" si="2"/>
-        <v>456081767.92422873</v>
+        <v>5919612.171092663</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="3"/>
-        <v>636964842.66624832</v>
+        <v>7426223.3140649498</v>
       </c>
       <c r="H76" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2300,19 +2300,19 @@
       </c>
       <c r="C77" s="13">
         <f t="shared" si="0"/>
-        <v>28998949963.41217</v>
+        <v>322834747.61011809</v>
       </c>
       <c r="D77" s="13">
         <f t="shared" si="1"/>
-        <v>742373119.06335151</v>
+        <v>8264569.5388190234</v>
       </c>
       <c r="E77" s="13">
         <f t="shared" si="2"/>
-        <v>636964842.66624832</v>
+        <v>7426223.3140649498</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="3"/>
-        <v>889586559.53167498</v>
+        <v>9316284.7694095206</v>
       </c>
       <c r="H77" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2325,19 +2325,19 @@
       </c>
       <c r="C78" s="13">
         <f t="shared" si="0"/>
-        <v>40499999999.999939</v>
+        <v>405000000.00000072</v>
       </c>
       <c r="D78" s="13">
         <f t="shared" si="1"/>
-        <v>1036799999.9999985</v>
+        <v>10368000.000000019</v>
       </c>
       <c r="E78" s="13">
         <f t="shared" si="2"/>
-        <v>889586559.53167498</v>
+        <v>9316284.7694095206</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="3"/>
-        <v>1242398628.4499769</v>
+        <v>11687389.165950514</v>
       </c>
       <c r="H78" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2350,19 +2350,19 @@
       </c>
       <c r="C79" s="13">
         <f t="shared" si="0"/>
-        <v>56562392847.65451</v>
+        <v>508077278.58988321</v>
       </c>
       <c r="D79" s="13">
         <f t="shared" si="1"/>
-        <v>1447997256.8999555</v>
+        <v>13006778.33190101</v>
       </c>
       <c r="E79" s="13">
         <f t="shared" si="2"/>
-        <v>1242398628.4499769</v>
+        <v>11687389.165950514</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="3"/>
-        <v>1735136772.7351818</v>
+        <v>14661967.608042002</v>
       </c>
       <c r="H79" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2375,19 +2375,19 @@
       </c>
       <c r="C80" s="13">
         <f t="shared" si="0"/>
-        <v>78995167522.281555</v>
+        <v>637388940.78839815</v>
       </c>
       <c r="D80" s="13">
         <f t="shared" si="1"/>
-        <v>2022276288.5704079</v>
+        <v>16317156.884182993</v>
       </c>
       <c r="E80" s="13">
         <f t="shared" si="2"/>
-        <v>1735136772.7351818</v>
+        <v>14661967.608042002</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="3"/>
-        <v>2423295994.6631827</v>
+        <v>18393611.360659219</v>
       </c>
       <c r="H80" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2400,19 +2400,19 @@
       </c>
       <c r="C81" s="9">
         <f t="shared" si="0"/>
-        <v>110324832060.7796</v>
+        <v>799611946.76310337</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="1"/>
-        <v>2824315700.7559576</v>
+        <v>20470065.837135445</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="2"/>
-        <v>2423295994.6631827</v>
+        <v>18393611.360659219</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="3"/>
-        <v>1412157850.3779788</v>
+        <v>10235032.918567723</v>
       </c>
       <c r="H81" s="20" t="str">
         <f t="shared" si="4"/>

--- a/FFT.xlsx
+++ b/FFT.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ESP32_FFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3908D5-BA42-4191-A7D4-A0F1D4D5AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D9B8F4-F622-4330-8275-85AB26199A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="1155" windowWidth="28005" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Start" sheetId="1" r:id="rId1"/>
+    <sheet name="Xylophone" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Sample Rate</t>
   </si>
@@ -320,7 +321,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -349,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2427,12 +2442,1810 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19:F81 H19:H81">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18 B18:F18">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B$18&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9AC08B-10F0-4E3C-A21D-7F974CB4F8DD}">
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>POWER(B7/B6,1/(B9-1))</f>
+        <v>1.2210553000675681</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>B5/2</f>
+        <v>20000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>B5/B8</f>
+        <v>39.0625</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>B8/2-1</f>
+        <v>511</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="18" t="str">
+        <f>"//"&amp;B9&amp;" bands, "&amp;B7/1000&amp;"kHz top band"</f>
+        <v>//16 bands, 20kHz top band</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" ref="C18:C81" si="0">$B$6*POWER($B$11,B18)</f>
+        <v>1000</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" ref="D18:D81" si="1">C18/$B$13</f>
+        <v>25.6</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <f>((D19-D18)/2)+D18</f>
+        <v>28.429507840864872</v>
+      </c>
+      <c r="H18" s="19" t="str">
+        <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];"</f>
+        <v xml:space="preserve">      if (i&lt;=28 )           bandValues[0]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>1221.0553000675682</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="1"/>
+        <v>31.259015681729746</v>
+      </c>
+      <c r="E19" s="13">
+        <f>F18</f>
+        <v>28.429507840864872</v>
+      </c>
+      <c r="F19" s="5">
+        <f>((D20-D19)/2)+D19</f>
+        <v>34.714001227400537</v>
+      </c>
+      <c r="H19" s="19" t="str">
+        <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];"))</f>
+        <v xml:space="preserve">      if (i&gt;28   &amp;&amp; i&lt;=35  ) bandValues[1]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>1490.976045823099</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="1"/>
+        <v>38.168986773071332</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" ref="E20:E81" si="2">F19</f>
+        <v>34.714001227400537</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F81" si="3">((D21-D20)/2)+D20</f>
+        <v>42.387715185269499</v>
+      </c>
+      <c r="H20" s="19" t="str">
+        <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
+        <v xml:space="preserve">      if (i&gt;35   &amp;&amp; i&lt;=42  ) bandValues[2]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>1820.5642030260803</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="1"/>
+        <v>46.60644359746766</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="2"/>
+        <v>42.387715185269499</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>51.757744284727863</v>
+      </c>
+      <c r="H21" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;42   &amp;&amp; i&lt;=52  ) bandValues[3]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>2223.009569218284</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="1"/>
+        <v>56.909044971988074</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="2"/>
+        <v>51.757744284727863</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>63.199067978408834</v>
+      </c>
+      <c r="H22" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;52   &amp;&amp; i&lt;=63  ) bandValues[4]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>2714.4176165949066</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="1"/>
+        <v>69.489090984829602</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="2"/>
+        <v>63.199067978408834</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>77.169556914366638</v>
+      </c>
+      <c r="H23" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;63   &amp;&amp; i&lt;=77  ) bandValues[5]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>6</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="0"/>
+        <v>3314.4540173399873</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="1"/>
+        <v>84.850022843903673</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="2"/>
+        <v>77.169556914366638</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>94.22829647415324</v>
+      </c>
+      <c r="H24" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;77   &amp;&amp; i&lt;=94  ) bandValues[6]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="0"/>
+        <v>4047.131644703235</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="1"/>
+        <v>103.60657010440282</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="2"/>
+        <v>94.22829647415324</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>115.05796082610297</v>
+      </c>
+      <c r="H25" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;94   &amp;&amp; i&lt;=115  ) bandValues[7]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="0"/>
+        <v>4941.7715448360595</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="1"/>
+        <v>126.50935154780312</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="2"/>
+        <v>115.05796082610297</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>140.49213288167965</v>
+      </c>
+      <c r="H26" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;115   &amp;&amp; i&lt;=140  ) bandValues[8]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>6034.1763365451643</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>154.4749142155562</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="2"/>
+        <v>140.49213288167965</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>171.54866347297201</v>
+      </c>
+      <c r="H27" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;140   &amp;&amp; i&lt;=172  ) bandValues[9]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>10</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>7368.0629972807756</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>188.62241273038785</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="2"/>
+        <v>171.54866347297201</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>209.47040475318013</v>
+      </c>
+      <c r="H28" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;172   &amp;&amp; i&lt;=209  ) bandValues[10]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>11</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="0"/>
+        <v>8996.8123740614228</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
+        <v>230.31839677597242</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="2"/>
+        <v>209.47040475318013</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>255.77494793116935</v>
+      </c>
+      <c r="H29" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;209   &amp;&amp; i&lt;=256  ) bandValues[11]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="0"/>
+        <v>10985.605433061182</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="1"/>
+        <v>281.23149908636628</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="2"/>
+        <v>255.77494793116935</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>312.31535579586063</v>
+      </c>
+      <c r="H30" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;256   &amp;&amp; i&lt;=312  ) bandValues[12]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>13</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="0"/>
+        <v>13414.031738490428</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="1"/>
+        <v>343.39921250535497</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="2"/>
+        <v>312.31535579586063</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="3"/>
+        <v>381.35432048702393</v>
+      </c>
+      <c r="H31" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;312   &amp;&amp; i&lt;=381  ) bandValues[13]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>14</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="0"/>
+        <v>16379.274549558315</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="1"/>
+        <v>419.30942846869289</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="2"/>
+        <v>381.35432048702393</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="3"/>
+        <v>465.65471423434656</v>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;381   &amp;&amp; i&lt;=466  ) bandValues[14]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>15</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="0"/>
+        <v>20000.000000000011</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="1"/>
+        <v>512.00000000000023</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="2"/>
+        <v>465.65471423434656</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="3"/>
+        <v>568.59015681729772</v>
+      </c>
+      <c r="H33" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      if (i&gt;466             ) bandValues[15]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>16</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" si="0"/>
+        <v>24421.106001351378</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="1"/>
+        <v>625.18031363459522</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="2"/>
+        <v>568.59015681729772</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="3"/>
+        <v>694.28002454801117</v>
+      </c>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>17</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="0"/>
+        <v>29819.520916461996</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="1"/>
+        <v>763.37973546142712</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="2"/>
+        <v>694.28002454801117</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="3"/>
+        <v>847.75430370539038</v>
+      </c>
+      <c r="H35" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>18</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="0"/>
+        <v>36411.284060521633</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="1"/>
+        <v>932.12887194935377</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="2"/>
+        <v>847.75430370539038</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="3"/>
+        <v>1035.1548856945578</v>
+      </c>
+      <c r="H36" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>19</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="0"/>
+        <v>44460.191384365702</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="1"/>
+        <v>1138.180899439762</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="2"/>
+        <v>1035.1548856945578</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="3"/>
+        <v>1263.9813595681776</v>
+      </c>
+      <c r="H37" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>20</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="0"/>
+        <v>54288.352331898175</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="1"/>
+        <v>1389.7818196965932</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="2"/>
+        <v>1263.9813595681776</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="3"/>
+        <v>1543.3911382873337</v>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>21</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="0"/>
+        <v>66289.080346799776</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="1"/>
+        <v>1697.0004568780741</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="2"/>
+        <v>1543.3911382873337</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="3"/>
+        <v>1884.5659294830659</v>
+      </c>
+      <c r="H39" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>22</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="0"/>
+        <v>80942.632894064751</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="1"/>
+        <v>2072.1314020880577</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="2"/>
+        <v>1884.5659294830659</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>2301.1592165220609</v>
+      </c>
+      <c r="H40" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>23</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" si="0"/>
+        <v>98835.430896721242</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="1"/>
+        <v>2530.1870309560636</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="2"/>
+        <v>2301.1592165220609</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="3"/>
+        <v>2809.8426576335951</v>
+      </c>
+      <c r="H41" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>24</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="0"/>
+        <v>120683.52673090338</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="1"/>
+        <v>3089.4982843111266</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="2"/>
+        <v>2809.8426576335951</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="3"/>
+        <v>3430.9732694594431</v>
+      </c>
+      <c r="H42" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>25</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="0"/>
+        <v>147361.2599456156</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="1"/>
+        <v>3772.4482546077593</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="2"/>
+        <v>3430.9732694594431</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="3"/>
+        <v>4189.4080950636053</v>
+      </c>
+      <c r="H43" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>26</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" si="0"/>
+        <v>179936.24748122858</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="1"/>
+        <v>4606.3679355194517</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="2"/>
+        <v>4189.4080950636053</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="3"/>
+        <v>5115.4989586233896</v>
+      </c>
+      <c r="H44" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>27</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="0"/>
+        <v>219712.10866122373</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="1"/>
+        <v>5624.6299817273275</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="2"/>
+        <v>5115.4989586233896</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="3"/>
+        <v>6246.3071159172159</v>
+      </c>
+      <c r="H45" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>28</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" si="0"/>
+        <v>268280.63476980879</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="1"/>
+        <v>6867.9842501071053</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="2"/>
+        <v>6246.3071159172159</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="3"/>
+        <v>7627.0864097404828</v>
+      </c>
+      <c r="H46" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>29</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" si="0"/>
+        <v>327585.49099116644</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="1"/>
+        <v>8386.1885693738604</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="2"/>
+        <v>7627.0864097404828</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="3"/>
+        <v>9313.0942846869366</v>
+      </c>
+      <c r="H47" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>30</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="0"/>
+        <v>400000.00000000047</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="1"/>
+        <v>10240.000000000013</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="2"/>
+        <v>9313.0942846869366</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="3"/>
+        <v>11371.803136345963</v>
+      </c>
+      <c r="H48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>31</v>
+      </c>
+      <c r="C49" s="13">
+        <f t="shared" si="0"/>
+        <v>488422.12002702785</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="1"/>
+        <v>12503.606272691914</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="2"/>
+        <v>11371.803136345963</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="3"/>
+        <v>13885.600490960232</v>
+      </c>
+      <c r="H49" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>32</v>
+      </c>
+      <c r="C50" s="13">
+        <f t="shared" si="0"/>
+        <v>596390.41832924029</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="1"/>
+        <v>15267.594709228551</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="2"/>
+        <v>13885.600490960232</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="3"/>
+        <v>16955.086074107818</v>
+      </c>
+      <c r="H50" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>33</v>
+      </c>
+      <c r="C51" s="13">
+        <f t="shared" si="0"/>
+        <v>728225.68121043302</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="1"/>
+        <v>18642.577438987086</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="2"/>
+        <v>16955.086074107818</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="3"/>
+        <v>20703.097713891169</v>
+      </c>
+      <c r="H51" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>34</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" si="0"/>
+        <v>889203.8276873146</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="1"/>
+        <v>22763.617988795253</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="2"/>
+        <v>20703.097713891169</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="3"/>
+        <v>25279.627191363565</v>
+      </c>
+      <c r="H52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <v>35</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" si="0"/>
+        <v>1085767.046637964</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="1"/>
+        <v>27795.636393931876</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="2"/>
+        <v>25279.627191363565</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="3"/>
+        <v>30867.822765746696</v>
+      </c>
+      <c r="H53" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <v>36</v>
+      </c>
+      <c r="C54" s="13">
+        <f t="shared" si="0"/>
+        <v>1325781.6069359968</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="1"/>
+        <v>33940.009137561516</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="2"/>
+        <v>30867.822765746696</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="3"/>
+        <v>37691.318589661343</v>
+      </c>
+      <c r="H54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>37</v>
+      </c>
+      <c r="C55" s="13">
+        <f t="shared" si="0"/>
+        <v>1618852.657881296</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="1"/>
+        <v>41442.628041761178</v>
+      </c>
+      <c r="E55" s="13">
+        <f t="shared" si="2"/>
+        <v>37691.318589661343</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="3"/>
+        <v>46023.184330441247</v>
+      </c>
+      <c r="H55" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>38</v>
+      </c>
+      <c r="C56" s="13">
+        <f t="shared" si="0"/>
+        <v>1976708.6179344263</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="1"/>
+        <v>50603.740619121316</v>
+      </c>
+      <c r="E56" s="13">
+        <f t="shared" si="2"/>
+        <v>46023.184330441247</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="3"/>
+        <v>56196.853152671945</v>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>39</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="0"/>
+        <v>2413670.534618069</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="1"/>
+        <v>61789.965686222567</v>
+      </c>
+      <c r="E57" s="13">
+        <f t="shared" si="2"/>
+        <v>56196.853152671945</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="3"/>
+        <v>68619.465389188903</v>
+      </c>
+      <c r="H57" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <v>40</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="0"/>
+        <v>2947225.1989123141</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="1"/>
+        <v>75448.965092155238</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" si="2"/>
+        <v>68619.465389188903</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="3"/>
+        <v>83788.161901272164</v>
+      </c>
+      <c r="H58" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="7">
+        <v>41</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="0"/>
+        <v>3598724.9496245738</v>
+      </c>
+      <c r="D59" s="13">
+        <f t="shared" si="1"/>
+        <v>92127.35871038909</v>
+      </c>
+      <c r="E59" s="13">
+        <f t="shared" si="2"/>
+        <v>83788.161901272164</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="3"/>
+        <v>102309.97917246787</v>
+      </c>
+      <c r="H59" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="7">
+        <v>42</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="0"/>
+        <v>4394242.173224478</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" si="1"/>
+        <v>112492.59963454664</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="2"/>
+        <v>102309.97917246787</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="3"/>
+        <v>124926.1423183444</v>
+      </c>
+      <c r="H60" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="7">
+        <v>43</v>
+      </c>
+      <c r="C61" s="13">
+        <f t="shared" si="0"/>
+        <v>5365612.6953961775</v>
+      </c>
+      <c r="D61" s="13">
+        <f t="shared" si="1"/>
+        <v>137359.68500214216</v>
+      </c>
+      <c r="E61" s="13">
+        <f t="shared" si="2"/>
+        <v>124926.1423183444</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="3"/>
+        <v>152541.72819480975</v>
+      </c>
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
+        <v>44</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="0"/>
+        <v>6551709.819823334</v>
+      </c>
+      <c r="D62" s="13">
+        <f t="shared" si="1"/>
+        <v>167723.77138747735</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" si="2"/>
+        <v>152541.72819480975</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="3"/>
+        <v>186261.88569373882</v>
+      </c>
+      <c r="H62" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <v>45</v>
+      </c>
+      <c r="C63" s="13">
+        <f t="shared" si="0"/>
+        <v>8000000.000000013</v>
+      </c>
+      <c r="D63" s="13">
+        <f t="shared" si="1"/>
+        <v>204800.00000000032</v>
+      </c>
+      <c r="E63" s="13">
+        <f t="shared" si="2"/>
+        <v>186261.88569373882</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="3"/>
+        <v>227436.06272691936</v>
+      </c>
+      <c r="H63" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="7">
+        <v>46</v>
+      </c>
+      <c r="C64" s="13">
+        <f t="shared" si="0"/>
+        <v>9768442.4005405623</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="1"/>
+        <v>250072.12545383841</v>
+      </c>
+      <c r="E64" s="13">
+        <f t="shared" si="2"/>
+        <v>227436.06272691936</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="3"/>
+        <v>277712.0098192048</v>
+      </c>
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>47</v>
+      </c>
+      <c r="C65" s="13">
+        <f t="shared" si="0"/>
+        <v>11927808.366584813</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="1"/>
+        <v>305351.89418457123</v>
+      </c>
+      <c r="E65" s="13">
+        <f t="shared" si="2"/>
+        <v>277712.0098192048</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="3"/>
+        <v>339101.7214821566</v>
+      </c>
+      <c r="H65" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="7">
+        <v>48</v>
+      </c>
+      <c r="C66" s="13">
+        <f t="shared" si="0"/>
+        <v>14564513.62420867</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" si="1"/>
+        <v>372851.54877974198</v>
+      </c>
+      <c r="E66" s="13">
+        <f t="shared" si="2"/>
+        <v>339101.7214821566</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="3"/>
+        <v>414061.95427782368</v>
+      </c>
+      <c r="H66" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>49</v>
+      </c>
+      <c r="C67" s="13">
+        <f t="shared" si="0"/>
+        <v>17784076.553746302</v>
+      </c>
+      <c r="D67" s="13">
+        <f t="shared" si="1"/>
+        <v>455272.35977590532</v>
+      </c>
+      <c r="E67" s="13">
+        <f t="shared" si="2"/>
+        <v>414061.95427782368</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="3"/>
+        <v>505592.54382727167</v>
+      </c>
+      <c r="H67" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <v>50</v>
+      </c>
+      <c r="C68" s="13">
+        <f t="shared" si="0"/>
+        <v>21715340.932759296</v>
+      </c>
+      <c r="D68" s="13">
+        <f t="shared" si="1"/>
+        <v>555912.72787863796</v>
+      </c>
+      <c r="E68" s="13">
+        <f t="shared" si="2"/>
+        <v>505592.54382727167</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="3"/>
+        <v>617356.45531493425</v>
+      </c>
+      <c r="H68" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="7">
+        <v>51</v>
+      </c>
+      <c r="C69" s="13">
+        <f t="shared" si="0"/>
+        <v>26515632.138719946</v>
+      </c>
+      <c r="D69" s="13">
+        <f t="shared" si="1"/>
+        <v>678800.18275123066</v>
+      </c>
+      <c r="E69" s="13">
+        <f t="shared" si="2"/>
+        <v>617356.45531493425</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="3"/>
+        <v>753826.37179322739</v>
+      </c>
+      <c r="H69" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>52</v>
+      </c>
+      <c r="C70" s="13">
+        <f t="shared" si="0"/>
+        <v>32377053.157625943</v>
+      </c>
+      <c r="D70" s="13">
+        <f t="shared" si="1"/>
+        <v>828852.56083522411</v>
+      </c>
+      <c r="E70" s="13">
+        <f t="shared" si="2"/>
+        <v>753826.37179322739</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="3"/>
+        <v>920463.68660882534</v>
+      </c>
+      <c r="H70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>53</v>
+      </c>
+      <c r="C71" s="13">
+        <f t="shared" si="0"/>
+        <v>39534172.358688541</v>
+      </c>
+      <c r="D71" s="13">
+        <f t="shared" si="1"/>
+        <v>1012074.8123824267</v>
+      </c>
+      <c r="E71" s="13">
+        <f t="shared" si="2"/>
+        <v>920463.68660882534</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="3"/>
+        <v>1123937.0630534394</v>
+      </c>
+      <c r="H71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="7">
+        <v>54</v>
+      </c>
+      <c r="C72" s="13">
+        <f t="shared" si="0"/>
+        <v>48273410.692361407</v>
+      </c>
+      <c r="D72" s="13">
+        <f t="shared" si="1"/>
+        <v>1235799.3137244519</v>
+      </c>
+      <c r="E72" s="13">
+        <f t="shared" si="2"/>
+        <v>1123937.0630534394</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="3"/>
+        <v>1372389.3077837788</v>
+      </c>
+      <c r="H72" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="7">
+        <v>55</v>
+      </c>
+      <c r="C73" s="13">
+        <f t="shared" si="0"/>
+        <v>58944503.978246316</v>
+      </c>
+      <c r="D73" s="13">
+        <f t="shared" si="1"/>
+        <v>1508979.3018431056</v>
+      </c>
+      <c r="E73" s="13">
+        <f t="shared" si="2"/>
+        <v>1372389.3077837788</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="3"/>
+        <v>1675763.2380254443</v>
+      </c>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="7">
+        <v>56</v>
+      </c>
+      <c r="C74" s="13">
+        <f t="shared" si="0"/>
+        <v>71974498.992491528</v>
+      </c>
+      <c r="D74" s="13">
+        <f t="shared" si="1"/>
+        <v>1842547.1742077831</v>
+      </c>
+      <c r="E74" s="13">
+        <f t="shared" si="2"/>
+        <v>1675763.2380254443</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="3"/>
+        <v>2046199.5834493586</v>
+      </c>
+      <c r="H74" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="7">
+        <v>57</v>
+      </c>
+      <c r="C75" s="13">
+        <f t="shared" si="0"/>
+        <v>87884843.464489624</v>
+      </c>
+      <c r="D75" s="13">
+        <f t="shared" si="1"/>
+        <v>2249851.9926909343</v>
+      </c>
+      <c r="E75" s="13">
+        <f t="shared" si="2"/>
+        <v>2046199.5834493586</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="3"/>
+        <v>2498522.8463668898</v>
+      </c>
+      <c r="H75" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="7">
+        <v>58</v>
+      </c>
+      <c r="C76" s="13">
+        <f t="shared" si="0"/>
+        <v>107312253.90792362</v>
+      </c>
+      <c r="D76" s="13">
+        <f t="shared" si="1"/>
+        <v>2747193.7000428447</v>
+      </c>
+      <c r="E76" s="13">
+        <f t="shared" si="2"/>
+        <v>2498522.8463668898</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="3"/>
+        <v>3050834.5638961964</v>
+      </c>
+      <c r="H76" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="7">
+        <v>59</v>
+      </c>
+      <c r="C77" s="13">
+        <f t="shared" si="0"/>
+        <v>131034196.39646673</v>
+      </c>
+      <c r="D77" s="13">
+        <f t="shared" si="1"/>
+        <v>3354475.4277495481</v>
+      </c>
+      <c r="E77" s="13">
+        <f t="shared" si="2"/>
+        <v>3050834.5638961964</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="3"/>
+        <v>3725237.7138747796</v>
+      </c>
+      <c r="H77" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="7">
+        <v>60</v>
+      </c>
+      <c r="C78" s="13">
+        <f t="shared" si="0"/>
+        <v>160000000.00000042</v>
+      </c>
+      <c r="D78" s="13">
+        <f t="shared" si="1"/>
+        <v>4096000.0000000107</v>
+      </c>
+      <c r="E78" s="13">
+        <f t="shared" si="2"/>
+        <v>3725237.7138747796</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="3"/>
+        <v>4548721.2545383908</v>
+      </c>
+      <c r="H78" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="7">
+        <v>61</v>
+      </c>
+      <c r="C79" s="13">
+        <f t="shared" si="0"/>
+        <v>195368848.01081136</v>
+      </c>
+      <c r="D79" s="13">
+        <f t="shared" si="1"/>
+        <v>5001442.5090767704</v>
+      </c>
+      <c r="E79" s="13">
+        <f t="shared" si="2"/>
+        <v>4548721.2545383908</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="3"/>
+        <v>5554240.1963840984</v>
+      </c>
+      <c r="H79" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="7">
+        <v>62</v>
+      </c>
+      <c r="C80" s="13">
+        <f t="shared" si="0"/>
+        <v>238556167.33169639</v>
+      </c>
+      <c r="D80" s="13">
+        <f t="shared" si="1"/>
+        <v>6107037.8836914273</v>
+      </c>
+      <c r="E80" s="13">
+        <f t="shared" si="2"/>
+        <v>5554240.1963840984</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="3"/>
+        <v>6782034.4296431355</v>
+      </c>
+      <c r="H80" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="8">
+        <v>63</v>
+      </c>
+      <c r="C81" s="9">
+        <f t="shared" si="0"/>
+        <v>291290272.4841736</v>
+      </c>
+      <c r="D81" s="9">
+        <f t="shared" si="1"/>
+        <v>7457030.9755948437</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" si="2"/>
+        <v>6782034.4296431355</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="3"/>
+        <v>3728515.4877974219</v>
+      </c>
+      <c r="H81" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B19:F81 H19:H81">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B19&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18 B18:F18">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FFT.xlsx
+++ b/FFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D9B8F4-F622-4330-8275-85AB26199A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C72637-109E-411E-BC7D-068328597BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="1155" windowWidth="28005" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="47250" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H33"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11">
         <f>POWER(B7/B6,1/(B9-1))</f>
-        <v>1.2545117989873635</v>
+        <v>1.2210553000675681</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="B12">
         <f>B5/2</f>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="B13">
         <f>B5/B8</f>
-        <v>39.0625</v>
+        <v>29.296875</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="H17" s="18" t="str">
         <f>"//"&amp;B9&amp;" bands, "&amp;B7/1000&amp;"kHz top band"</f>
-        <v>//16 bands, 15kHz top band</v>
+        <v>//16 bands, 10kHz top band</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -844,19 +844,19 @@
         <v>500</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D18:D81" si="1">C18/$B$13</f>
-        <v>12.8</v>
+        <f>C18/$B$13</f>
+        <v>17.066666666666666</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="16">
         <f>((D19-D18)/2)+D18</f>
-        <v>14.428875513519127</v>
+        <v>18.953005227243246</v>
       </c>
       <c r="H18" s="19" t="str">
         <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];"</f>
-        <v xml:space="preserve">      if (i&lt;=14 )           bandValues[0]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&lt;=19 )           bandValues[0]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -865,23 +865,23 @@
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
-        <v>627.2558994936818</v>
+        <v>610.52765003378408</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="1"/>
-        <v>16.057751027038254</v>
+        <f t="shared" ref="D18:D81" si="1">C19/$B$13</f>
+        <v>20.839343787819828</v>
       </c>
       <c r="E19" s="13">
         <f>F18</f>
-        <v>14.428875513519127</v>
+        <v>18.953005227243246</v>
       </c>
       <c r="F19" s="5">
         <f>((D20-D19)/2)+D19</f>
-        <v>18.101194577829599</v>
+        <v>23.142667484933693</v>
       </c>
       <c r="H19" s="19" t="str">
         <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;14   &amp;&amp; i&lt;=18  ) bandValues[1]  += (int)vReal[i];</v>
+        <v xml:space="preserve">      if (i&gt;19   &amp;&amp; i&lt;=23  ) bandValues[1]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -890,23 +890,23 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
-        <v>786.89992689925555</v>
+        <v>745.48802291154948</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>20.144638128620944</v>
+        <v>25.445991182047557</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" ref="E20:E81" si="2">F19</f>
-        <v>18.101194577829599</v>
+        <f>F19</f>
+        <v>23.142667484933693</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ref="F20:F81" si="3">((D21-D20)/2)+D20</f>
-        <v>22.708162173653321</v>
+        <f t="shared" ref="F20:F81" si="2">((D21-D20)/2)+D20</f>
+        <v>28.258476790179664</v>
       </c>
       <c r="H20" s="19" t="str">
-        <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=23  ) bandValues[2]  += (int)vReal[i];</v>
+        <f t="shared" ref="H20:H81" si="3">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
+        <v xml:space="preserve">      if (i&gt;23   &amp;&amp; i&lt;=28  ) bandValues[2]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -915,23 +915,23 @@
       </c>
       <c r="C21" s="13">
         <f t="shared" si="0"/>
-        <v>987.17524291740995</v>
+        <v>910.28210151304017</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>25.271686218685694</v>
+        <v>31.070962398311771</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" si="2"/>
-        <v>22.708162173653321</v>
+        <f t="shared" ref="E20:E81" si="4">F20</f>
+        <v>28.258476790179664</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="3"/>
-        <v>28.487657380166624</v>
+        <f t="shared" si="2"/>
+        <v>34.505162856485242</v>
       </c>
       <c r="H21" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;23   &amp;&amp; i&lt;=28  ) bandValues[3]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;28   &amp;&amp; i&lt;=35  ) bandValues[3]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -940,23 +940,23 @@
       </c>
       <c r="C22" s="13">
         <f t="shared" si="0"/>
-        <v>1238.4229899081076</v>
+        <v>1111.504784609142</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>31.703628541647557</v>
+        <v>37.939363314658713</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" si="2"/>
-        <v>28.487657380166624</v>
+        <f t="shared" si="4"/>
+        <v>34.505162856485242</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="3"/>
-        <v>35.738102308928475</v>
+        <f t="shared" si="2"/>
+        <v>42.132711985605894</v>
       </c>
       <c r="H22" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;28   &amp;&amp; i&lt;=36  ) bandValues[4]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;35   &amp;&amp; i&lt;=42  ) bandValues[4]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -965,23 +965,23 @@
       </c>
       <c r="C23" s="13">
         <f t="shared" si="0"/>
-        <v>1553.6162529769297</v>
+        <v>1357.2088082974533</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>39.772576076209397</v>
+        <v>46.326060656553075</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="2"/>
-        <v>35.738102308928475</v>
+        <f t="shared" si="4"/>
+        <v>42.132711985605894</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="3"/>
-        <v>44.833871019968313</v>
+        <f t="shared" si="2"/>
+        <v>51.446371276244435</v>
       </c>
       <c r="H23" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;36   &amp;&amp; i&lt;=45  ) bandValues[5]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;42   &amp;&amp; i&lt;=51  ) bandValues[5]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -990,23 +990,23 @@
       </c>
       <c r="C24" s="13">
         <f t="shared" si="0"/>
-        <v>1949.0299204580947</v>
+        <v>1657.2270086699937</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>49.895165963727223</v>
+        <v>56.566681895935787</v>
       </c>
       <c r="E24" s="13">
-        <f t="shared" si="2"/>
-        <v>44.833871019968313</v>
+        <f t="shared" si="4"/>
+        <v>51.446371276244435</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="3"/>
-        <v>56.244620188827867</v>
+        <f t="shared" si="2"/>
+        <v>62.818864316102164</v>
       </c>
       <c r="H24" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;45   &amp;&amp; i&lt;=56  ) bandValues[6]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;51   &amp;&amp; i&lt;=63  ) bandValues[6]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1015,23 +1015,23 @@
       </c>
       <c r="C25" s="13">
         <f t="shared" si="0"/>
-        <v>2445.0810317940827</v>
+        <v>2023.5658223516175</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>62.594074413928517</v>
+        <v>69.071046736268542</v>
       </c>
       <c r="E25" s="13">
-        <f t="shared" si="2"/>
-        <v>56.244620188827867</v>
+        <f t="shared" si="4"/>
+        <v>62.818864316102164</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="3"/>
-        <v>70.559539656447441</v>
+        <f t="shared" si="2"/>
+        <v>76.70530721740198</v>
       </c>
       <c r="H25" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;56   &amp;&amp; i&lt;=71  ) bandValues[7]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;63   &amp;&amp; i&lt;=77  ) bandValues[7]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1040,23 +1040,23 @@
       </c>
       <c r="C26" s="13">
         <f t="shared" si="0"/>
-        <v>3067.3830038658739</v>
+        <v>2470.8857724180298</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>78.525004898966372</v>
+        <v>84.339567698535419</v>
       </c>
       <c r="E26" s="13">
-        <f t="shared" si="2"/>
-        <v>70.559539656447441</v>
+        <f t="shared" si="4"/>
+        <v>76.70530721740198</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="3"/>
-        <v>88.51777503013011</v>
+        <f t="shared" si="2"/>
+        <v>93.661421921119768</v>
       </c>
       <c r="H26" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;71   &amp;&amp; i&lt;=89  ) bandValues[8]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;77   &amp;&amp; i&lt;=94  ) bandValues[8]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1065,23 +1065,23 @@
       </c>
       <c r="C27" s="13">
         <f t="shared" si="0"/>
-        <v>3848.0681703630407</v>
+        <v>3017.0881682725822</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>98.510545161293848</v>
+        <v>102.98327614370413</v>
       </c>
       <c r="E27" s="13">
-        <f t="shared" si="2"/>
-        <v>88.51777503013011</v>
+        <f t="shared" si="4"/>
+        <v>93.661421921119768</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="3"/>
-        <v>111.04659319540724</v>
+        <f t="shared" si="2"/>
+        <v>114.36577564864803</v>
       </c>
       <c r="H27" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;89   &amp;&amp; i&lt;=111  ) bandValues[9]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;94   &amp;&amp; i&lt;=114  ) bandValues[9]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1090,23 +1090,23 @@
       </c>
       <c r="C28" s="13">
         <f t="shared" si="0"/>
-        <v>4827.4469230281502</v>
+        <v>3684.0314986403878</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>123.58264122952065</v>
+        <v>125.7482751535919</v>
       </c>
       <c r="E28" s="13">
-        <f t="shared" si="2"/>
-        <v>111.04659319540724</v>
+        <f t="shared" si="4"/>
+        <v>114.36577564864803</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="3"/>
-        <v>139.30926140098825</v>
+        <f t="shared" si="2"/>
+        <v>139.6469365021201</v>
       </c>
       <c r="H28" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;111   &amp;&amp; i&lt;=139  ) bandValues[10]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;114   &amp;&amp; i&lt;=140  ) bandValues[10]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1115,23 +1115,23 @@
       </c>
       <c r="C29" s="13">
         <f t="shared" si="0"/>
-        <v>6056.0891239240582</v>
+        <v>4498.4061870307114</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>155.03588157245588</v>
+        <v>153.54559785064828</v>
       </c>
       <c r="E29" s="13">
-        <f t="shared" si="2"/>
-        <v>139.30926140098825</v>
+        <f t="shared" si="4"/>
+        <v>139.6469365021201</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="3"/>
-        <v>174.76511213575469</v>
+        <f t="shared" si="2"/>
+        <v>170.51663195411288</v>
       </c>
       <c r="H29" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;139   &amp;&amp; i&lt;=175  ) bandValues[11]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;140   &amp;&amp; i&lt;=171  ) bandValues[11]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1140,23 +1140,23 @@
       </c>
       <c r="C30" s="13">
         <f t="shared" si="0"/>
-        <v>7597.435261681776</v>
+        <v>5492.8027165305912</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>194.49434269905348</v>
+        <v>187.48766605757751</v>
       </c>
       <c r="E30" s="13">
-        <f t="shared" si="2"/>
-        <v>174.76511213575469</v>
+        <f t="shared" si="4"/>
+        <v>170.51663195411288</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="3"/>
-        <v>219.24489522565392</v>
+        <f t="shared" si="2"/>
+        <v>208.21023719724042</v>
       </c>
       <c r="H30" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;175   &amp;&amp; i&lt;=219  ) bandValues[12]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;171   &amp;&amp; i&lt;=208  ) bandValues[12]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1165,23 +1165,23 @@
       </c>
       <c r="C31" s="13">
         <f t="shared" si="0"/>
-        <v>9531.0721778224361</v>
+        <v>6707.0158692452142</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>243.99544775225436</v>
+        <v>228.93280833690332</v>
       </c>
       <c r="E31" s="13">
-        <f t="shared" si="2"/>
-        <v>219.24489522565392</v>
+        <f t="shared" si="4"/>
+        <v>208.21023719724042</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="3"/>
-        <v>275.04530792833111</v>
+        <f t="shared" si="2"/>
+        <v>254.23621365801597</v>
       </c>
       <c r="H31" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;219   &amp;&amp; i&lt;=275  ) bandValues[13]  += (int)vReal[i];</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      if (i&gt;208   &amp;&amp; i&lt;=254  ) bandValues[13]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1190,23 +1190,23 @@
       </c>
       <c r="C32" s="13">
         <f t="shared" si="0"/>
-        <v>11956.842504078433</v>
+        <v>8189.6372747791575</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>306.09516810440789</v>
+        <v>279.53961897912859</v>
       </c>
       <c r="E32" s="13">
-        <f t="shared" si="2"/>
-        <v>275.04530792833111</v>
+        <f t="shared" si="4"/>
+        <v>254.23621365801597</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="3"/>
-        <v>345.047584052204</v>
+        <f t="shared" si="2"/>
+        <v>310.43647615623104</v>
       </c>
       <c r="H32" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;275   &amp;&amp; i&lt;=345  ) bandValues[14]  += (int)vReal[i];</v>
+        <f>IF(($B$9-1)&lt;B32,"",IF(($B$9-1)=B32,"      if (i&gt;"&amp;ROUND(E32,0)&amp;"             ) bandValues["&amp;B32&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E32,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F32,0)&amp;"  ) bandValues["&amp;B32&amp;"]  += (int)vReal[i];"))</f>
+        <v xml:space="preserve">      if (i&gt;254   &amp;&amp; i&lt;=310  ) bandValues[14]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1215,23 +1215,23 @@
       </c>
       <c r="C33" s="13">
         <f t="shared" si="0"/>
-        <v>15000.000000000005</v>
+        <v>10000.000000000005</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>384.00000000000011</v>
+        <v>341.33333333333354</v>
       </c>
       <c r="E33" s="13">
-        <f t="shared" si="2"/>
-        <v>345.047584052204</v>
+        <f t="shared" si="4"/>
+        <v>310.43647615623104</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="3"/>
-        <v>432.86626540557393</v>
+        <f t="shared" si="2"/>
+        <v>379.06010454486523</v>
       </c>
       <c r="H33" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;345             ) bandValues[15]  += (int)vReal[i];</v>
+        <f>IF(($B$9-1)&lt;B33,"",IF(($B$9-1)=B33,"      if (i&gt;"&amp;ROUND(E33,0)&amp;"             ) bandValues["&amp;B33&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E33,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F33,0)&amp;"  ) bandValues["&amp;B33&amp;"]  += (int)vReal[i];"))</f>
+        <v xml:space="preserve">      if (i&gt;310             ) bandValues[15]  += (int)vReal[i];</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1240,22 +1240,22 @@
       </c>
       <c r="C34" s="13">
         <f t="shared" si="0"/>
-        <v>18817.67698481046</v>
+        <v>12210.553000675689</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>481.73253081114774</v>
+        <v>416.78687575639685</v>
       </c>
       <c r="E34" s="13">
-        <f t="shared" si="2"/>
-        <v>432.86626540557393</v>
+        <f t="shared" si="4"/>
+        <v>379.06010454486523</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="3"/>
-        <v>543.03583733488813</v>
+        <f t="shared" si="2"/>
+        <v>462.85334969867415</v>
       </c>
       <c r="H34" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1265,22 +1265,22 @@
       </c>
       <c r="C35" s="13">
         <f t="shared" si="0"/>
-        <v>23606.997806977677</v>
+        <v>14909.760458230998</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>604.33914385862852</v>
+        <v>508.91982364095139</v>
       </c>
       <c r="E35" s="13">
-        <f t="shared" si="2"/>
-        <v>543.03583733488813</v>
+        <f t="shared" si="4"/>
+        <v>462.85334969867415</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="3"/>
-        <v>681.24486520959988</v>
+        <f t="shared" si="2"/>
+        <v>565.16953580359359</v>
       </c>
       <c r="H35" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1290,22 +1290,22 @@
       </c>
       <c r="C36" s="13">
         <f t="shared" si="0"/>
-        <v>29615.257287522312</v>
+        <v>18205.642030260817</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>758.15058656057124</v>
+        <v>621.41924796623584</v>
       </c>
       <c r="E36" s="13">
-        <f t="shared" si="2"/>
-        <v>681.24486520959988</v>
+        <f t="shared" si="4"/>
+        <v>565.16953580359359</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="3"/>
-        <v>854.62972140499915</v>
+        <f t="shared" si="2"/>
+        <v>690.1032571297053</v>
       </c>
       <c r="H36" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1315,22 +1315,22 @@
       </c>
       <c r="C37" s="13">
         <f t="shared" si="0"/>
-        <v>37152.689697243244</v>
+        <v>22230.095692182851</v>
       </c>
       <c r="D37" s="13">
         <f t="shared" si="1"/>
-        <v>951.10885624942705</v>
+        <v>758.78726629317464</v>
       </c>
       <c r="E37" s="13">
-        <f t="shared" si="2"/>
-        <v>854.62972140499915</v>
+        <f t="shared" si="4"/>
+        <v>690.1032571297053</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="3"/>
-        <v>1072.1430692678548</v>
+        <f t="shared" si="2"/>
+        <v>842.6542397121184</v>
       </c>
       <c r="H37" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1340,22 +1340,22 @@
       </c>
       <c r="C38" s="13">
         <f t="shared" si="0"/>
-        <v>46608.487589307915</v>
+        <v>27144.176165949088</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="1"/>
-        <v>1193.1772822862827</v>
+        <v>926.52121313106215</v>
       </c>
       <c r="E38" s="13">
-        <f t="shared" si="2"/>
-        <v>1072.1430692678548</v>
+        <f t="shared" si="4"/>
+        <v>842.6542397121184</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="3"/>
-        <v>1345.01613059905</v>
+        <f t="shared" si="2"/>
+        <v>1028.9274255248893</v>
       </c>
       <c r="H38" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1365,22 +1365,22 @@
       </c>
       <c r="C39" s="13">
         <f t="shared" si="0"/>
-        <v>58470.897613742876</v>
+        <v>33144.540173399888</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" si="1"/>
-        <v>1496.8549789118176</v>
+        <v>1131.3336379187162</v>
       </c>
       <c r="E39" s="13">
-        <f t="shared" si="2"/>
-        <v>1345.01613059905</v>
+        <f t="shared" si="4"/>
+        <v>1028.9274255248893</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="3"/>
-        <v>1687.3386056648369</v>
+        <f t="shared" si="2"/>
+        <v>1256.377286322044</v>
       </c>
       <c r="H39" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1390,22 +1390,22 @@
       </c>
       <c r="C40" s="13">
         <f t="shared" si="0"/>
-        <v>73352.430953822506</v>
+        <v>40471.316447032375</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="1"/>
-        <v>1877.8222324178562</v>
+        <v>1381.4209347253718</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" si="2"/>
-        <v>1687.3386056648369</v>
+        <f t="shared" si="4"/>
+        <v>1256.377286322044</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="3"/>
-        <v>2116.7861896934241</v>
+        <f t="shared" si="2"/>
+        <v>1534.1061443480405</v>
       </c>
       <c r="H40" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1415,22 +1415,22 @@
       </c>
       <c r="C41" s="13">
         <f t="shared" si="0"/>
-        <v>92021.490115976252</v>
+        <v>49417.715448360621</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" si="1"/>
-        <v>2355.7501469689919</v>
+        <v>1686.7913539707092</v>
       </c>
       <c r="E41" s="13">
-        <f t="shared" si="2"/>
-        <v>2116.7861896934241</v>
+        <f t="shared" si="4"/>
+        <v>1534.1061443480405</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="3"/>
-        <v>2655.533250903904</v>
+        <f t="shared" si="2"/>
+        <v>1873.2284384223967</v>
       </c>
       <c r="H41" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1440,22 +1440,22 @@
       </c>
       <c r="C42" s="13">
         <f t="shared" si="0"/>
-        <v>115442.04511089125</v>
+        <v>60341.76336545169</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="1"/>
-        <v>2955.3163548388161</v>
+        <v>2059.6655228740842</v>
       </c>
       <c r="E42" s="13">
-        <f t="shared" si="2"/>
-        <v>2655.533250903904</v>
+        <f t="shared" si="4"/>
+        <v>1873.2284384223967</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="3"/>
-        <v>3331.397795862219</v>
+        <f t="shared" si="2"/>
+        <v>2287.3155129729621</v>
       </c>
       <c r="H42" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1465,22 +1465,22 @@
       </c>
       <c r="C43" s="13">
         <f t="shared" si="0"/>
-        <v>144823.40769084459</v>
+        <v>73680.629972807801</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="1"/>
-        <v>3707.4792368856215</v>
+        <v>2514.9655030718395</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="2"/>
-        <v>3331.397795862219</v>
+        <f t="shared" si="4"/>
+        <v>2287.3155129729621</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="3"/>
-        <v>4179.2778420296499</v>
+        <f t="shared" si="2"/>
+        <v>2792.9387300424037</v>
       </c>
       <c r="H43" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1490,22 +1490,22 @@
       </c>
       <c r="C44" s="13">
         <f t="shared" si="0"/>
-        <v>181682.6737177218</v>
+        <v>89968.12374061429</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="1"/>
-        <v>4651.0764471736784</v>
+        <v>3070.9119570129678</v>
       </c>
       <c r="E44" s="13">
-        <f t="shared" si="2"/>
-        <v>4179.2778420296499</v>
+        <f t="shared" si="4"/>
+        <v>2792.9387300424037</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="3"/>
-        <v>5242.9533640726422</v>
+        <f t="shared" si="2"/>
+        <v>3410.3326390822594</v>
       </c>
       <c r="H44" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1515,22 +1515,22 @@
       </c>
       <c r="C45" s="13">
         <f t="shared" si="0"/>
-        <v>227923.05785045336</v>
+        <v>109856.05433061186</v>
       </c>
       <c r="D45" s="13">
         <f t="shared" si="1"/>
-        <v>5834.830280971606</v>
+        <v>3749.7533211515515</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" si="2"/>
-        <v>5242.9533640726422</v>
+        <f t="shared" si="4"/>
+        <v>3410.3326390822594</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="3"/>
-        <v>6577.34685676962</v>
+        <f t="shared" si="2"/>
+        <v>4164.2047439448106</v>
       </c>
       <c r="H45" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1540,22 +1540,22 @@
       </c>
       <c r="C46" s="13">
         <f t="shared" si="0"/>
-        <v>285932.16533467319</v>
+        <v>134140.3173849044</v>
       </c>
       <c r="D46" s="13">
         <f t="shared" si="1"/>
-        <v>7319.8634325676339</v>
+        <v>4578.6561667380702</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="2"/>
-        <v>6577.34685676962</v>
+        <f t="shared" si="4"/>
+        <v>4164.2047439448106</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="3"/>
-        <v>8251.3592378499379</v>
+        <f t="shared" si="2"/>
+        <v>5084.7242731603219</v>
       </c>
       <c r="H46" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1565,22 +1565,22 @@
       </c>
       <c r="C47" s="13">
         <f t="shared" si="0"/>
-        <v>358705.27512235317</v>
+        <v>163792.74549558322</v>
       </c>
       <c r="D47" s="13">
         <f t="shared" si="1"/>
-        <v>9182.8550431322419</v>
+        <v>5590.7923795825736</v>
       </c>
       <c r="E47" s="13">
-        <f t="shared" si="2"/>
-        <v>8251.3592378499379</v>
+        <f t="shared" si="4"/>
+        <v>5084.7242731603219</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="3"/>
-        <v>10351.427521566126</v>
+        <f t="shared" si="2"/>
+        <v>6208.7295231246244</v>
       </c>
       <c r="H47" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="C48" s="13">
         <f t="shared" si="0"/>
-        <v>450000.00000000041</v>
+        <v>200000.00000000023</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="1"/>
-        <v>11520.000000000011</v>
+        <v>6826.6666666666742</v>
       </c>
       <c r="E48" s="13">
-        <f t="shared" si="2"/>
-        <v>10351.427521566126</v>
+        <f t="shared" si="4"/>
+        <v>6208.7295231246244</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="3"/>
-        <v>12985.987962167226</v>
+        <f t="shared" si="2"/>
+        <v>7581.2020908973082</v>
       </c>
       <c r="H48" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1615,22 +1615,22 @@
       </c>
       <c r="C49" s="13">
         <f t="shared" si="0"/>
-        <v>564530.30954431405</v>
+        <v>244211.06001351392</v>
       </c>
       <c r="D49" s="13">
         <f t="shared" si="1"/>
-        <v>14451.97592433444</v>
+        <v>8335.7375151279412</v>
       </c>
       <c r="E49" s="13">
-        <f t="shared" si="2"/>
-        <v>12985.987962167226</v>
+        <f t="shared" si="4"/>
+        <v>7581.2020908973082</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="3"/>
-        <v>16291.075120046651</v>
+        <f t="shared" si="2"/>
+        <v>9257.0669939734871</v>
       </c>
       <c r="H49" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1640,22 +1640,22 @@
       </c>
       <c r="C50" s="13">
         <f t="shared" si="0"/>
-        <v>708209.93420933059</v>
+        <v>298195.20916462014</v>
       </c>
       <c r="D50" s="13">
         <f t="shared" si="1"/>
-        <v>18130.174315758864</v>
+        <v>10178.396472819035</v>
       </c>
       <c r="E50" s="13">
-        <f t="shared" si="2"/>
-        <v>16291.075120046651</v>
+        <f t="shared" si="4"/>
+        <v>9257.0669939734871</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="3"/>
-        <v>20437.345956288005</v>
+        <f t="shared" si="2"/>
+        <v>11303.390716071879</v>
       </c>
       <c r="H50" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1665,22 +1665,22 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" si="0"/>
-        <v>888457.71862566972</v>
+        <v>364112.84060521651</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="1"/>
-        <v>22744.517596817146</v>
+        <v>12428.384959324723</v>
       </c>
       <c r="E51" s="13">
-        <f t="shared" si="2"/>
-        <v>20437.345956288005</v>
+        <f t="shared" si="4"/>
+        <v>11303.390716071879</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="3"/>
-        <v>25638.891642149982</v>
+        <f t="shared" si="2"/>
+        <v>13802.065142594114</v>
       </c>
       <c r="H51" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1690,22 +1690,22 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" si="0"/>
-        <v>1114580.6909172977</v>
+        <v>444601.9138436573</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="1"/>
-        <v>28533.265687482821</v>
+        <v>15175.745325863503</v>
       </c>
       <c r="E52" s="13">
-        <f t="shared" si="2"/>
-        <v>25638.891642149982</v>
+        <f t="shared" si="4"/>
+        <v>13802.065142594114</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="3"/>
-        <v>32164.292078035658</v>
+        <f t="shared" si="2"/>
+        <v>16853.084794242379</v>
       </c>
       <c r="H52" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1715,22 +1715,22 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" si="0"/>
-        <v>1398254.6276792379</v>
+        <v>542883.52331898198</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="1"/>
-        <v>35795.318468588492</v>
+        <v>18530.424262621251</v>
       </c>
       <c r="E53" s="13">
-        <f t="shared" si="2"/>
-        <v>32164.292078035658</v>
+        <f t="shared" si="4"/>
+        <v>16853.084794242379</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="3"/>
-        <v>40350.48391797152</v>
+        <f t="shared" si="2"/>
+        <v>20578.5485104978</v>
       </c>
       <c r="H53" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1740,22 +1740,22 @@
       </c>
       <c r="C54" s="13">
         <f t="shared" si="0"/>
-        <v>1754126.9284122868</v>
+        <v>662890.8034679984</v>
       </c>
       <c r="D54" s="13">
         <f t="shared" si="1"/>
-        <v>44905.649367354541</v>
+        <v>22626.672758374345</v>
       </c>
       <c r="E54" s="13">
-        <f t="shared" si="2"/>
-        <v>40350.48391797152</v>
+        <f t="shared" si="4"/>
+        <v>20578.5485104978</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="3"/>
-        <v>50620.158169945134</v>
+        <f t="shared" si="2"/>
+        <v>25127.545726440898</v>
       </c>
       <c r="H54" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1765,22 +1765,22 @@
       </c>
       <c r="C55" s="13">
         <f t="shared" si="0"/>
-        <v>2200572.9286146765</v>
+        <v>809426.328940648</v>
       </c>
       <c r="D55" s="13">
         <f t="shared" si="1"/>
-        <v>56334.666972535721</v>
+        <v>27628.418694507451</v>
       </c>
       <c r="E55" s="13">
-        <f t="shared" si="2"/>
-        <v>50620.158169945134</v>
+        <f t="shared" si="4"/>
+        <v>25127.545726440898</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="3"/>
-        <v>63503.585690802756</v>
+        <f t="shared" si="2"/>
+        <v>30682.122886960831</v>
       </c>
       <c r="H55" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
       </c>
       <c r="C56" s="13">
         <f t="shared" si="0"/>
-        <v>2760644.7034792886</v>
+        <v>988354.30896721315</v>
       </c>
       <c r="D56" s="13">
         <f t="shared" si="1"/>
-        <v>70672.504409069792</v>
+        <v>33735.827079414208</v>
       </c>
       <c r="E56" s="13">
-        <f t="shared" si="2"/>
-        <v>63503.585690802756</v>
+        <f t="shared" si="4"/>
+        <v>30682.122886960831</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="3"/>
-        <v>79665.997527117142</v>
+        <f t="shared" si="2"/>
+        <v>37464.568768447964</v>
       </c>
       <c r="H56" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1815,22 +1815,22 @@
       </c>
       <c r="C57" s="13">
         <f t="shared" si="0"/>
-        <v>3463261.3533267388</v>
+        <v>1206835.2673090345</v>
       </c>
       <c r="D57" s="13">
         <f t="shared" si="1"/>
-        <v>88659.490645164507</v>
+        <v>41193.310457481712</v>
       </c>
       <c r="E57" s="13">
-        <f t="shared" si="2"/>
-        <v>79665.997527117142</v>
+        <f t="shared" si="4"/>
+        <v>37464.568768447964</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="3"/>
-        <v>99941.933875866598</v>
+        <f t="shared" si="2"/>
+        <v>45746.310259459271</v>
       </c>
       <c r="H57" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1840,22 +1840,22 @@
       </c>
       <c r="C58" s="13">
         <f t="shared" si="0"/>
-        <v>4344702.2307253396</v>
+        <v>1473612.5994561571</v>
       </c>
       <c r="D58" s="13">
         <f t="shared" si="1"/>
-        <v>111224.37710656869</v>
+        <v>50299.31006143683</v>
       </c>
       <c r="E58" s="13">
-        <f t="shared" si="2"/>
-        <v>99941.933875866598</v>
+        <f t="shared" si="4"/>
+        <v>45746.310259459271</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="3"/>
-        <v>125378.33526088955</v>
+        <f t="shared" si="2"/>
+        <v>55858.774600848112</v>
       </c>
       <c r="H58" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1865,22 +1865,22 @@
       </c>
       <c r="C59" s="13">
         <f t="shared" si="0"/>
-        <v>5450480.2115316568</v>
+        <v>1799362.4748122869</v>
       </c>
       <c r="D59" s="13">
         <f t="shared" si="1"/>
-        <v>139532.29341521041</v>
+        <v>61418.239140259393</v>
       </c>
       <c r="E59" s="13">
-        <f t="shared" si="2"/>
-        <v>125378.33526088955</v>
+        <f t="shared" si="4"/>
+        <v>55858.774600848112</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="3"/>
-        <v>157288.60092217935</v>
+        <f t="shared" si="2"/>
+        <v>68206.652781645244</v>
       </c>
       <c r="H59" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1890,22 +1890,22 @@
       </c>
       <c r="C60" s="13">
         <f t="shared" si="0"/>
-        <v>6837691.7355136042</v>
+        <v>2197121.086612239</v>
       </c>
       <c r="D60" s="13">
         <f t="shared" si="1"/>
-        <v>175044.90842914826</v>
+        <v>74995.066423031094</v>
       </c>
       <c r="E60" s="13">
-        <f t="shared" si="2"/>
-        <v>157288.60092217935</v>
+        <f t="shared" si="4"/>
+        <v>68206.652781645244</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="3"/>
-        <v>197320.40570308868</v>
+        <f t="shared" si="2"/>
+        <v>83284.094878896256</v>
       </c>
       <c r="H60" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1915,22 +1915,22 @@
       </c>
       <c r="C61" s="13">
         <f t="shared" si="0"/>
-        <v>8577964.9600401986</v>
+        <v>2682806.3476980887</v>
       </c>
       <c r="D61" s="13">
         <f t="shared" si="1"/>
-        <v>219595.90297702909</v>
+        <v>91573.123334761432</v>
       </c>
       <c r="E61" s="13">
-        <f t="shared" si="2"/>
-        <v>197320.40570308868</v>
+        <f t="shared" si="4"/>
+        <v>83284.094878896256</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="3"/>
-        <v>247540.77713549818</v>
+        <f t="shared" si="2"/>
+        <v>101694.4854632065</v>
       </c>
       <c r="H61" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1940,22 +1940,22 @@
       </c>
       <c r="C62" s="13">
         <f t="shared" si="0"/>
-        <v>10761158.253670597</v>
+        <v>3275854.909911667</v>
       </c>
       <c r="D62" s="13">
         <f t="shared" si="1"/>
-        <v>275485.65129396727</v>
+        <v>111815.84759165156</v>
       </c>
       <c r="E62" s="13">
-        <f t="shared" si="2"/>
-        <v>247540.77713549818</v>
+        <f t="shared" si="4"/>
+        <v>101694.4854632065</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="3"/>
-        <v>310542.82564698387</v>
+        <f t="shared" si="2"/>
+        <v>124174.59046249255</v>
       </c>
       <c r="H62" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1965,22 +1965,22 @@
       </c>
       <c r="C63" s="13">
         <f t="shared" si="0"/>
-        <v>13500000.000000019</v>
+        <v>4000000.0000000065</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" si="1"/>
-        <v>345600.00000000047</v>
+        <v>136533.33333333355</v>
       </c>
       <c r="E63" s="13">
-        <f t="shared" si="2"/>
-        <v>310542.82564698387</v>
+        <f t="shared" si="4"/>
+        <v>124174.59046249255</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="3"/>
-        <v>389579.63886501692</v>
+        <f t="shared" si="2"/>
+        <v>151624.04181794624</v>
       </c>
       <c r="H63" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1990,22 +1990,22 @@
       </c>
       <c r="C64" s="13">
         <f t="shared" si="0"/>
-        <v>16935909.28632943</v>
+        <v>4884221.2002702812</v>
       </c>
       <c r="D64" s="13">
         <f t="shared" si="1"/>
-        <v>433559.27773003338</v>
+        <v>166714.75030255894</v>
       </c>
       <c r="E64" s="13">
-        <f t="shared" si="2"/>
-        <v>389579.63886501692</v>
+        <f t="shared" si="4"/>
+        <v>151624.04181794624</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="3"/>
-        <v>488732.25360139977</v>
+        <f t="shared" si="2"/>
+        <v>185141.33987946989</v>
       </c>
       <c r="H64" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2015,22 +2015,22 @@
       </c>
       <c r="C65" s="13">
         <f t="shared" si="0"/>
-        <v>21246298.02627993</v>
+        <v>5963904.1832924066</v>
       </c>
       <c r="D65" s="13">
         <f t="shared" si="1"/>
-        <v>543905.22947276616</v>
+        <v>203567.92945638081</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="2"/>
-        <v>488732.25360139977</v>
+        <f t="shared" si="4"/>
+        <v>185141.33987946989</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="3"/>
-        <v>613120.37868864043</v>
+        <f t="shared" si="2"/>
+        <v>226067.81432143773</v>
       </c>
       <c r="H65" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2040,22 +2040,22 @@
       </c>
       <c r="C66" s="13">
         <f t="shared" si="0"/>
-        <v>26653731.558770105</v>
+        <v>7282256.8121043351</v>
       </c>
       <c r="D66" s="13">
         <f t="shared" si="1"/>
-        <v>682335.52790451469</v>
+        <v>248567.69918649463</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="2"/>
-        <v>613120.37868864043</v>
+        <f t="shared" si="4"/>
+        <v>226067.81432143773</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="3"/>
-        <v>769166.74926449987</v>
+        <f t="shared" si="2"/>
+        <v>276041.30285188241</v>
       </c>
       <c r="H66" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2065,22 +2065,22 @@
       </c>
       <c r="C67" s="13">
         <f t="shared" si="0"/>
-        <v>33437420.727518946</v>
+        <v>8892038.2768731508</v>
       </c>
       <c r="D67" s="13">
         <f t="shared" si="1"/>
-        <v>855997.97062448505</v>
+        <v>303514.9065172702</v>
       </c>
       <c r="E67" s="13">
-        <f t="shared" si="2"/>
-        <v>769166.74926449987</v>
+        <f t="shared" si="4"/>
+        <v>276041.30285188241</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="3"/>
-        <v>964928.76234107011</v>
+        <f t="shared" si="2"/>
+        <v>337061.69588484778</v>
       </c>
       <c r="H67" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2090,22 +2090,22 @@
       </c>
       <c r="C68" s="13">
         <f t="shared" si="0"/>
-        <v>41947638.830377154</v>
+        <v>10857670.466379648</v>
       </c>
       <c r="D68" s="13">
         <f t="shared" si="1"/>
-        <v>1073859.5540576552</v>
+        <v>370608.48525242531</v>
       </c>
       <c r="E68" s="13">
-        <f t="shared" si="2"/>
-        <v>964928.76234107011</v>
+        <f t="shared" si="4"/>
+        <v>337061.69588484778</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="3"/>
-        <v>1210514.5175391461</v>
+        <f t="shared" si="2"/>
+        <v>411570.97020995617</v>
       </c>
       <c r="H68" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2115,22 +2115,22 @@
       </c>
       <c r="C69" s="13">
         <f t="shared" si="0"/>
-        <v>52623807.852368638</v>
+        <v>13257816.069359973</v>
       </c>
       <c r="D69" s="13">
         <f t="shared" si="1"/>
-        <v>1347169.4810206371</v>
+        <v>452533.45516748709</v>
       </c>
       <c r="E69" s="13">
-        <f t="shared" si="2"/>
-        <v>1210514.5175391461</v>
+        <f t="shared" si="4"/>
+        <v>411570.97020995617</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="3"/>
-        <v>1518604.7450983548</v>
+        <f t="shared" si="2"/>
+        <v>502550.91452881822</v>
       </c>
       <c r="H69" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2140,22 +2140,22 @@
       </c>
       <c r="C70" s="13">
         <f t="shared" si="0"/>
-        <v>66017187.858440317</v>
+        <v>16188526.578812972</v>
       </c>
       <c r="D70" s="13">
         <f t="shared" si="1"/>
-        <v>1690040.0091760722</v>
+        <v>552568.37389014941</v>
       </c>
       <c r="E70" s="13">
-        <f t="shared" si="2"/>
-        <v>1518604.7450983548</v>
+        <f t="shared" si="4"/>
+        <v>502550.91452881822</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="3"/>
-        <v>1905107.5707240836</v>
+        <f t="shared" si="2"/>
+        <v>613642.45773921697</v>
       </c>
       <c r="H70" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2165,22 +2165,22 @@
       </c>
       <c r="C71" s="13">
         <f t="shared" si="0"/>
-        <v>82819341.1043787</v>
+        <v>19767086.17934427</v>
       </c>
       <c r="D71" s="13">
         <f t="shared" si="1"/>
-        <v>2120175.132272095</v>
+        <v>674716.54158828442</v>
       </c>
       <c r="E71" s="13">
-        <f t="shared" si="2"/>
-        <v>1905107.5707240836</v>
+        <f t="shared" si="4"/>
+        <v>613642.45773921697</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="3"/>
-        <v>2389979.9258135157</v>
+        <f t="shared" si="2"/>
+        <v>749291.3753689595</v>
       </c>
       <c r="H71" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2190,22 +2190,22 @@
       </c>
       <c r="C72" s="13">
         <f t="shared" si="0"/>
-        <v>103897840.59980221</v>
+        <v>24136705.346180703</v>
       </c>
       <c r="D72" s="13">
         <f t="shared" si="1"/>
-        <v>2659784.7193549364</v>
+        <v>823866.2091496347</v>
       </c>
       <c r="E72" s="13">
-        <f t="shared" si="2"/>
-        <v>2389979.9258135157</v>
+        <f t="shared" si="4"/>
+        <v>749291.3753689595</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="3"/>
-        <v>2998258.0162759991</v>
+        <f t="shared" si="2"/>
+        <v>914926.20518918592</v>
       </c>
       <c r="H72" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2215,22 +2215,22 @@
       </c>
       <c r="C73" s="13">
         <f t="shared" si="0"/>
-        <v>130341066.92176022</v>
+        <v>29472251.989123158</v>
       </c>
       <c r="D73" s="13">
         <f t="shared" si="1"/>
-        <v>3336731.3131970614</v>
+        <v>1005986.2012287371</v>
       </c>
       <c r="E73" s="13">
-        <f t="shared" si="2"/>
-        <v>2998258.0162759991</v>
+        <f t="shared" si="4"/>
+        <v>914926.20518918592</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="3"/>
-        <v>3761350.0578266876</v>
+        <f t="shared" si="2"/>
+        <v>1117175.492016963</v>
       </c>
       <c r="H73" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2240,22 +2240,22 @@
       </c>
       <c r="C74" s="13">
         <f t="shared" si="0"/>
-        <v>163514406.34594974</v>
+        <v>35987249.496245764</v>
       </c>
       <c r="D74" s="13">
         <f t="shared" si="1"/>
-        <v>4185968.8024563133</v>
+        <v>1228364.7828051888</v>
       </c>
       <c r="E74" s="13">
-        <f t="shared" si="2"/>
-        <v>3761350.0578266876</v>
+        <f t="shared" si="4"/>
+        <v>1117175.492016963</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="3"/>
-        <v>4718658.0276653823</v>
+        <f t="shared" si="2"/>
+        <v>1364133.0556329058</v>
       </c>
       <c r="H74" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2265,22 +2265,22 @@
       </c>
       <c r="C75" s="13">
         <f t="shared" si="0"/>
-        <v>205130752.06540823</v>
+        <v>43942421.732244812</v>
       </c>
       <c r="D75" s="13">
         <f t="shared" si="1"/>
-        <v>5251347.2528744508</v>
+        <v>1499901.3284606228</v>
       </c>
       <c r="E75" s="13">
-        <f t="shared" si="2"/>
-        <v>4718658.0276653823</v>
+        <f t="shared" si="4"/>
+        <v>1364133.0556329058</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="3"/>
-        <v>5919612.171092663</v>
+        <f t="shared" si="2"/>
+        <v>1665681.8975779263</v>
       </c>
       <c r="H75" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2290,22 +2290,22 @@
       </c>
       <c r="C76" s="13">
         <f t="shared" si="0"/>
-        <v>257338948.80120608</v>
+        <v>53656126.953961812</v>
       </c>
       <c r="D76" s="13">
         <f t="shared" si="1"/>
-        <v>6587877.0893108761</v>
+        <v>1831462.4666952298</v>
       </c>
       <c r="E76" s="13">
-        <f t="shared" si="2"/>
-        <v>5919612.171092663</v>
+        <f t="shared" si="4"/>
+        <v>1665681.8975779263</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="3"/>
-        <v>7426223.3140649498</v>
+        <f t="shared" si="2"/>
+        <v>2033889.7092641308</v>
       </c>
       <c r="H76" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2315,22 +2315,22 @@
       </c>
       <c r="C77" s="13">
         <f t="shared" si="0"/>
-        <v>322834747.61011809</v>
+        <v>65517098.198233366</v>
       </c>
       <c r="D77" s="13">
         <f t="shared" si="1"/>
-        <v>8264569.5388190234</v>
+        <v>2236316.9518330321</v>
       </c>
       <c r="E77" s="13">
-        <f t="shared" si="2"/>
-        <v>7426223.3140649498</v>
+        <f t="shared" si="4"/>
+        <v>2033889.7092641308</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="3"/>
-        <v>9316284.7694095206</v>
+        <f t="shared" si="2"/>
+        <v>2483491.8092498528</v>
       </c>
       <c r="H77" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2340,22 +2340,22 @@
       </c>
       <c r="C78" s="13">
         <f t="shared" si="0"/>
-        <v>405000000.00000072</v>
+        <v>80000000.000000209</v>
       </c>
       <c r="D78" s="13">
         <f t="shared" si="1"/>
-        <v>10368000.000000019</v>
+        <v>2730666.666666674</v>
       </c>
       <c r="E78" s="13">
-        <f t="shared" si="2"/>
-        <v>9316284.7694095206</v>
+        <f t="shared" si="4"/>
+        <v>2483491.8092498528</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="3"/>
-        <v>11687389.165950514</v>
+        <f t="shared" si="2"/>
+        <v>3032480.8363589272</v>
       </c>
       <c r="H78" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2365,22 +2365,22 @@
       </c>
       <c r="C79" s="13">
         <f t="shared" si="0"/>
-        <v>508077278.58988321</v>
+        <v>97684424.005405679</v>
       </c>
       <c r="D79" s="13">
         <f t="shared" si="1"/>
-        <v>13006778.33190101</v>
+        <v>3334295.0060511804</v>
       </c>
       <c r="E79" s="13">
-        <f t="shared" si="2"/>
-        <v>11687389.165950514</v>
+        <f t="shared" si="4"/>
+        <v>3032480.8363589272</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="3"/>
-        <v>14661967.608042002</v>
+        <f t="shared" si="2"/>
+        <v>3702826.7975893994</v>
       </c>
       <c r="H79" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
       </c>
       <c r="C80" s="13">
         <f t="shared" si="0"/>
-        <v>637388940.78839815</v>
+        <v>119278083.6658482</v>
       </c>
       <c r="D80" s="13">
         <f t="shared" si="1"/>
-        <v>16317156.884182993</v>
+        <v>4071358.5891276184</v>
       </c>
       <c r="E80" s="13">
-        <f t="shared" si="2"/>
-        <v>14661967.608042002</v>
+        <f t="shared" si="4"/>
+        <v>3702826.7975893994</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="3"/>
-        <v>18393611.360659219</v>
+        <f t="shared" si="2"/>
+        <v>4521356.286428757</v>
       </c>
       <c r="H80" s="19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2415,22 +2415,22 @@
       </c>
       <c r="C81" s="9">
         <f t="shared" si="0"/>
-        <v>799611946.76310337</v>
+        <v>145645136.2420868</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="1"/>
-        <v>20470065.837135445</v>
+        <v>4971353.9837298961</v>
       </c>
       <c r="E81" s="9">
-        <f t="shared" si="2"/>
-        <v>18393611.360659219</v>
+        <f t="shared" si="4"/>
+        <v>4521356.286428757</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="3"/>
-        <v>10235032.918567723</v>
+        <f t="shared" si="2"/>
+        <v>2485676.9918649481</v>
       </c>
       <c r="H81" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
